--- a/lang/lt/headTags.xlsx
+++ b/lang/lt/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>lt</t>
+    <t>lt (Lithuanian)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/lt/headTags.xlsx
+++ b/lang/lt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2077">
   <si>
     <t>en</t>
   </si>
@@ -1676,6 +1676,12 @@
   </si>
   <si>
     <t>Sprogstamasis</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Akis</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -6588,7 +6594,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9134,12 +9140,12 @@
         <v>557</v>
       </c>
       <c r="B317" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B318" t="s">
         <v>559</v>
@@ -9150,12 +9156,12 @@
         <v>560</v>
       </c>
       <c r="B319" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B320" t="s">
         <v>562</v>
@@ -9190,12 +9196,12 @@
         <v>569</v>
       </c>
       <c r="B324" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B325" t="s">
         <v>571</v>
@@ -9238,12 +9244,12 @@
         <v>580</v>
       </c>
       <c r="B330" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B331" t="s">
         <v>582</v>
@@ -9310,12 +9316,12 @@
         <v>597</v>
       </c>
       <c r="B339" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B340" t="s">
         <v>599</v>
@@ -10038,28 +10044,28 @@
         <v>778</v>
       </c>
       <c r="B430" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B431" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B432" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B433" t="s">
         <v>782</v>
@@ -10158,12 +10164,12 @@
         <v>805</v>
       </c>
       <c r="B445" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B446" t="s">
         <v>807</v>
@@ -10174,12 +10180,12 @@
         <v>808</v>
       </c>
       <c r="B447" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B448" t="s">
         <v>810</v>
@@ -10294,12 +10300,12 @@
         <v>837</v>
       </c>
       <c r="B462" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B463" t="s">
         <v>839</v>
@@ -10310,20 +10316,20 @@
         <v>840</v>
       </c>
       <c r="B464" t="s">
-        <v>556</v>
+        <v>841</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B465" t="s">
-        <v>841</v>
+        <v>558</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B466" t="s">
         <v>843</v>
@@ -10334,12 +10340,12 @@
         <v>844</v>
       </c>
       <c r="B467" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B468" t="s">
         <v>846</v>
@@ -10358,23 +10364,23 @@
         <v>849</v>
       </c>
       <c r="B470" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B471" t="s">
-        <v>556</v>
+        <v>851</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B472" t="s">
-        <v>852</v>
+        <v>558</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10382,12 +10388,12 @@
         <v>853</v>
       </c>
       <c r="B473" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B474" t="s">
         <v>855</v>
@@ -10438,20 +10444,20 @@
         <v>866</v>
       </c>
       <c r="B480" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B481" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B482" t="s">
         <v>869</v>
@@ -10462,12 +10468,12 @@
         <v>870</v>
       </c>
       <c r="B483" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B484" t="s">
         <v>872</v>
@@ -10478,28 +10484,28 @@
         <v>873</v>
       </c>
       <c r="B485" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B486" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B487" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B488" t="s">
         <v>877</v>
@@ -10686,12 +10692,12 @@
         <v>922</v>
       </c>
       <c r="B511" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B512" t="s">
         <v>924</v>
@@ -10838,12 +10844,12 @@
         <v>959</v>
       </c>
       <c r="B530" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B531" t="s">
         <v>961</v>
@@ -10862,20 +10868,20 @@
         <v>964</v>
       </c>
       <c r="B533" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B534" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B535" t="s">
         <v>967</v>
@@ -10894,28 +10900,28 @@
         <v>970</v>
       </c>
       <c r="B537" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B538" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B539" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B540" t="s">
         <v>974</v>
@@ -10950,20 +10956,20 @@
         <v>981</v>
       </c>
       <c r="B544" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B545" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B546" t="s">
         <v>984</v>
@@ -10974,12 +10980,12 @@
         <v>985</v>
       </c>
       <c r="B547" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B548" t="s">
         <v>987</v>
@@ -10990,12 +10996,12 @@
         <v>988</v>
       </c>
       <c r="B549" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B550" t="s">
         <v>990</v>
@@ -11094,12 +11100,12 @@
         <v>1013</v>
       </c>
       <c r="B562" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B563" t="s">
         <v>1015</v>
@@ -11126,12 +11132,12 @@
         <v>1020</v>
       </c>
       <c r="B566" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B567" t="s">
         <v>1022</v>
@@ -11182,12 +11188,12 @@
         <v>1033</v>
       </c>
       <c r="B573" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B574" t="s">
         <v>1035</v>
@@ -11198,28 +11204,28 @@
         <v>1036</v>
       </c>
       <c r="B575" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B576" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B577" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B578" t="s">
         <v>1040</v>
@@ -11326,12 +11332,12 @@
         <v>1065</v>
       </c>
       <c r="B591" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B592" t="s">
         <v>1067</v>
@@ -11398,28 +11404,28 @@
         <v>1082</v>
       </c>
       <c r="B600" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B601" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B602" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B603" t="s">
         <v>1086</v>
@@ -11550,12 +11556,12 @@
         <v>1117</v>
       </c>
       <c r="B619" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B620" t="s">
         <v>1119</v>
@@ -11574,12 +11580,12 @@
         <v>1122</v>
       </c>
       <c r="B622" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B623" t="s">
         <v>1124</v>
@@ -11614,12 +11620,12 @@
         <v>1131</v>
       </c>
       <c r="B627" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B628" t="s">
         <v>1133</v>
@@ -11630,12 +11636,12 @@
         <v>1134</v>
       </c>
       <c r="B629" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B630" t="s">
         <v>1136</v>
@@ -11654,52 +11660,52 @@
         <v>1139</v>
       </c>
       <c r="B632" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B633" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B634" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B635" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B636" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B637" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B638" t="s">
         <v>1146</v>
@@ -11710,36 +11716,36 @@
         <v>1147</v>
       </c>
       <c r="B639" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B640" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B641" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B642" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B643" t="s">
         <v>1152</v>
@@ -11774,28 +11780,28 @@
         <v>1159</v>
       </c>
       <c r="B647" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B648" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B649" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B650" t="s">
         <v>1163</v>
@@ -11806,12 +11812,12 @@
         <v>1164</v>
       </c>
       <c r="B651" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B652" t="s">
         <v>1166</v>
@@ -12006,12 +12012,12 @@
         <v>1213</v>
       </c>
       <c r="B676" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B677" t="s">
         <v>1215</v>
@@ -12038,20 +12044,20 @@
         <v>1220</v>
       </c>
       <c r="B680" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B681" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B682" t="s">
         <v>1223</v>
@@ -12182,12 +12188,12 @@
         <v>1254</v>
       </c>
       <c r="B698" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B699" t="s">
         <v>1256</v>
@@ -12198,20 +12204,20 @@
         <v>1257</v>
       </c>
       <c r="B700" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B701" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B702" t="s">
         <v>1260</v>
@@ -12222,28 +12228,28 @@
         <v>1261</v>
       </c>
       <c r="B703" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B704" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B705" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B706" t="s">
         <v>1265</v>
@@ -12262,20 +12268,20 @@
         <v>1268</v>
       </c>
       <c r="B708" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B709" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B710" t="s">
         <v>1271</v>
@@ -12374,20 +12380,20 @@
         <v>1294</v>
       </c>
       <c r="B722" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B723" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B724" t="s">
         <v>1297</v>
@@ -12430,12 +12436,12 @@
         <v>1306</v>
       </c>
       <c r="B729" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B730" t="s">
         <v>1308</v>
@@ -12486,12 +12492,12 @@
         <v>1319</v>
       </c>
       <c r="B736" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B737" t="s">
         <v>1321</v>
@@ -12518,12 +12524,12 @@
         <v>1326</v>
       </c>
       <c r="B740" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B741" t="s">
         <v>1328</v>
@@ -12542,20 +12548,20 @@
         <v>1331</v>
       </c>
       <c r="B743" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B744" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B745" t="s">
         <v>1334</v>
@@ -12662,28 +12668,28 @@
         <v>1359</v>
       </c>
       <c r="B758" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B759" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B760" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B761" t="s">
         <v>1363</v>
@@ -12726,12 +12732,12 @@
         <v>1372</v>
       </c>
       <c r="B766" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B767" t="s">
         <v>1374</v>
@@ -12838,28 +12844,28 @@
         <v>1399</v>
       </c>
       <c r="B780" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B781" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B782" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B783" t="s">
         <v>1403</v>
@@ -12878,12 +12884,12 @@
         <v>1406</v>
       </c>
       <c r="B785" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B786" t="s">
         <v>1408</v>
@@ -12902,12 +12908,12 @@
         <v>1411</v>
       </c>
       <c r="B788" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B789" t="s">
         <v>1413</v>
@@ -12926,28 +12932,28 @@
         <v>1416</v>
       </c>
       <c r="B791" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B792" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B793" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B794" t="s">
         <v>1420</v>
@@ -12958,12 +12964,12 @@
         <v>1421</v>
       </c>
       <c r="B795" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B796" t="s">
         <v>1423</v>
@@ -13030,20 +13036,20 @@
         <v>1438</v>
       </c>
       <c r="B804" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B805" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B806" t="s">
         <v>1441</v>
@@ -13078,12 +13084,12 @@
         <v>1448</v>
       </c>
       <c r="B810" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B811" t="s">
         <v>1450</v>
@@ -13102,12 +13108,12 @@
         <v>1453</v>
       </c>
       <c r="B813" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B814" t="s">
         <v>1455</v>
@@ -13126,12 +13132,12 @@
         <v>1458</v>
       </c>
       <c r="B816" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B817" t="s">
         <v>1460</v>
@@ -13158,12 +13164,12 @@
         <v>1465</v>
       </c>
       <c r="B820" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B821" t="s">
         <v>1467</v>
@@ -13174,12 +13180,12 @@
         <v>1468</v>
       </c>
       <c r="B822" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B823" t="s">
         <v>1470</v>
@@ -13222,36 +13228,36 @@
         <v>1479</v>
       </c>
       <c r="B828" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B829" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B830" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B831" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B832" t="s">
         <v>1484</v>
@@ -13318,28 +13324,28 @@
         <v>1499</v>
       </c>
       <c r="B840" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B841" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B842" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B843" t="s">
         <v>1503</v>
@@ -13446,20 +13452,20 @@
         <v>1528</v>
       </c>
       <c r="B856" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B857" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B858" t="s">
         <v>1531</v>
@@ -13470,12 +13476,12 @@
         <v>1532</v>
       </c>
       <c r="B859" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B860" t="s">
         <v>1534</v>
@@ -13486,12 +13492,12 @@
         <v>1535</v>
       </c>
       <c r="B861" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B862" t="s">
         <v>1537</v>
@@ -13598,20 +13604,20 @@
         <v>1562</v>
       </c>
       <c r="B875" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B876" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B877" t="s">
         <v>1565</v>
@@ -13638,12 +13644,12 @@
         <v>1570</v>
       </c>
       <c r="B880" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B881" t="s">
         <v>1572</v>
@@ -13662,12 +13668,12 @@
         <v>1575</v>
       </c>
       <c r="B883" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B884" t="s">
         <v>1577</v>
@@ -13678,12 +13684,12 @@
         <v>1578</v>
       </c>
       <c r="B885" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B886" t="s">
         <v>1580</v>
@@ -13694,12 +13700,12 @@
         <v>1581</v>
       </c>
       <c r="B887" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B888" t="s">
         <v>1583</v>
@@ -13710,12 +13716,12 @@
         <v>1584</v>
       </c>
       <c r="B889" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B890" t="s">
         <v>1586</v>
@@ -13774,12 +13780,12 @@
         <v>1599</v>
       </c>
       <c r="B897" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B898" t="s">
         <v>1601</v>
@@ -13806,12 +13812,12 @@
         <v>1606</v>
       </c>
       <c r="B901" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B902" t="s">
         <v>1608</v>
@@ -13822,20 +13828,20 @@
         <v>1609</v>
       </c>
       <c r="B903" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B904" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B905" t="s">
         <v>1612</v>
@@ -13846,12 +13852,12 @@
         <v>1613</v>
       </c>
       <c r="B906" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B907" t="s">
         <v>1615</v>
@@ -13886,28 +13892,28 @@
         <v>1622</v>
       </c>
       <c r="B911" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B912" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B913" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B914" t="s">
         <v>1626</v>
@@ -13950,20 +13956,20 @@
         <v>1635</v>
       </c>
       <c r="B919" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B920" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B921" t="s">
         <v>1638</v>
@@ -13998,12 +14004,12 @@
         <v>1645</v>
       </c>
       <c r="B925" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B926" t="s">
         <v>1647</v>
@@ -14014,20 +14020,20 @@
         <v>1648</v>
       </c>
       <c r="B927" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B928" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B929" t="s">
         <v>1651</v>
@@ -14102,20 +14108,20 @@
         <v>1668</v>
       </c>
       <c r="B938" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B939" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B940" t="s">
         <v>1671</v>
@@ -14134,12 +14140,12 @@
         <v>1674</v>
       </c>
       <c r="B942" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B943" t="s">
         <v>1676</v>
@@ -14150,28 +14156,28 @@
         <v>1677</v>
       </c>
       <c r="B944" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B945" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B946" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B947" t="s">
         <v>1681</v>
@@ -14214,20 +14220,20 @@
         <v>1690</v>
       </c>
       <c r="B952" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B953" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B954" t="s">
         <v>1693</v>
@@ -14286,20 +14292,20 @@
         <v>1706</v>
       </c>
       <c r="B961" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B962" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B963" t="s">
         <v>1709</v>
@@ -14398,20 +14404,20 @@
         <v>1732</v>
       </c>
       <c r="B975" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B976" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B977" t="s">
         <v>1735</v>
@@ -14446,12 +14452,12 @@
         <v>1742</v>
       </c>
       <c r="B981" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B982" t="s">
         <v>1744</v>
@@ -14462,12 +14468,12 @@
         <v>1745</v>
       </c>
       <c r="B983" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B984" t="s">
         <v>1747</v>
@@ -14478,15 +14484,15 @@
         <v>1748</v>
       </c>
       <c r="B985" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B986" t="s">
         <v>1749</v>
-      </c>
-      <c r="B986" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -14510,12 +14516,12 @@
         <v>1755</v>
       </c>
       <c r="B989" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B990" t="s">
         <v>1757</v>
@@ -14534,12 +14540,12 @@
         <v>1760</v>
       </c>
       <c r="B992" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B993" t="s">
         <v>1762</v>
@@ -14598,20 +14604,20 @@
         <v>1775</v>
       </c>
       <c r="B1000" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1001" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1002" t="s">
         <v>1778</v>
@@ -14630,12 +14636,12 @@
         <v>1781</v>
       </c>
       <c r="B1004" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1005" t="s">
         <v>1783</v>
@@ -14646,20 +14652,20 @@
         <v>1784</v>
       </c>
       <c r="B1006" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B1007" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B1008" t="s">
         <v>1787</v>
@@ -14694,20 +14700,20 @@
         <v>1794</v>
       </c>
       <c r="B1012" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B1013" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B1014" t="s">
         <v>1797</v>
@@ -14726,12 +14732,12 @@
         <v>1800</v>
       </c>
       <c r="B1016" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1017" t="s">
         <v>1802</v>
@@ -14782,12 +14788,12 @@
         <v>1813</v>
       </c>
       <c r="B1023" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1024" t="s">
         <v>1815</v>
@@ -14822,12 +14828,12 @@
         <v>1822</v>
       </c>
       <c r="B1028" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B1029" t="s">
         <v>1824</v>
@@ -14838,12 +14844,12 @@
         <v>1825</v>
       </c>
       <c r="B1030" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B1031" t="s">
         <v>1827</v>
@@ -14862,12 +14868,12 @@
         <v>1830</v>
       </c>
       <c r="B1033" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1034" t="s">
         <v>1832</v>
@@ -14894,12 +14900,12 @@
         <v>1837</v>
       </c>
       <c r="B1037" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1038" t="s">
         <v>1839</v>
@@ -15038,12 +15044,12 @@
         <v>1872</v>
       </c>
       <c r="B1055" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1056" t="s">
         <v>1874</v>
@@ -15118,12 +15124,12 @@
         <v>1891</v>
       </c>
       <c r="B1065" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1066" t="s">
         <v>1893</v>
@@ -15142,12 +15148,12 @@
         <v>1896</v>
       </c>
       <c r="B1068" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1069" t="s">
         <v>1898</v>
@@ -15158,20 +15164,20 @@
         <v>1899</v>
       </c>
       <c r="B1070" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B1071" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B1072" t="s">
         <v>1902</v>
@@ -15190,12 +15196,12 @@
         <v>1905</v>
       </c>
       <c r="B1074" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B1075" t="s">
         <v>1907</v>
@@ -15214,12 +15220,12 @@
         <v>1910</v>
       </c>
       <c r="B1077" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B1078" t="s">
         <v>1912</v>
@@ -15294,12 +15300,12 @@
         <v>1929</v>
       </c>
       <c r="B1087" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B1088" t="s">
         <v>1931</v>
@@ -15366,12 +15372,12 @@
         <v>1946</v>
       </c>
       <c r="B1096" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B1097" t="s">
         <v>1948</v>
@@ -15382,20 +15388,20 @@
         <v>1949</v>
       </c>
       <c r="B1098" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B1099" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1100" t="s">
         <v>1952</v>
@@ -15430,12 +15436,12 @@
         <v>1959</v>
       </c>
       <c r="B1104" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1105" t="s">
         <v>1961</v>
@@ -15446,12 +15452,12 @@
         <v>1962</v>
       </c>
       <c r="B1106" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B1107" t="s">
         <v>1964</v>
@@ -15606,12 +15612,12 @@
         <v>2001</v>
       </c>
       <c r="B1126" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1127" t="s">
         <v>2003</v>
@@ -15622,12 +15628,12 @@
         <v>2004</v>
       </c>
       <c r="B1128" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B1129" t="s">
         <v>2006</v>
@@ -15638,12 +15644,12 @@
         <v>2007</v>
       </c>
       <c r="B1130" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B1131" t="s">
         <v>2009</v>
@@ -15662,28 +15668,28 @@
         <v>2012</v>
       </c>
       <c r="B1133" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B1134" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B1135" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B1136" t="s">
         <v>2016</v>
@@ -15766,12 +15772,12 @@
         <v>2035</v>
       </c>
       <c r="B1146" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B1147" t="s">
         <v>2037</v>
@@ -15814,20 +15820,20 @@
         <v>2046</v>
       </c>
       <c r="B1152" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B1153" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B1154" t="s">
         <v>2049</v>
@@ -15862,12 +15868,12 @@
         <v>2056</v>
       </c>
       <c r="B1158" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B1159" t="s">
         <v>2058</v>
@@ -15894,28 +15900,28 @@
         <v>2063</v>
       </c>
       <c r="B1162" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B1163" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B1164" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B1165" t="s">
         <v>2067</v>
@@ -15934,12 +15940,12 @@
         <v>2070</v>
       </c>
       <c r="B1167" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B1168" t="s">
         <v>2072</v>
@@ -15953,8 +15959,16 @@
         <v>2074</v>
       </c>
     </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2076</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/lt/headTags.xlsx
+++ b/lang/lt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2079">
   <si>
     <t>en</t>
   </si>
@@ -5009,6 +5009,12 @@
   </si>
   <si>
     <t>Septynios mirtinos nuodėmės</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>"Shadow of the Colossus</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -6594,7 +6600,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14116,20 +14122,20 @@
         <v>1670</v>
       </c>
       <c r="B939" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B940" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B941" t="s">
         <v>1673</v>
@@ -14148,12 +14154,12 @@
         <v>1676</v>
       </c>
       <c r="B943" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B944" t="s">
         <v>1678</v>
@@ -14164,28 +14170,28 @@
         <v>1679</v>
       </c>
       <c r="B945" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B946" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B947" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B948" t="s">
         <v>1683</v>
@@ -14228,20 +14234,20 @@
         <v>1692</v>
       </c>
       <c r="B953" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B954" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B955" t="s">
         <v>1695</v>
@@ -14300,20 +14306,20 @@
         <v>1708</v>
       </c>
       <c r="B962" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B963" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B964" t="s">
         <v>1711</v>
@@ -14412,20 +14418,20 @@
         <v>1734</v>
       </c>
       <c r="B976" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B977" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B978" t="s">
         <v>1737</v>
@@ -14460,12 +14466,12 @@
         <v>1744</v>
       </c>
       <c r="B982" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B983" t="s">
         <v>1746</v>
@@ -14476,12 +14482,12 @@
         <v>1747</v>
       </c>
       <c r="B984" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B985" t="s">
         <v>1749</v>
@@ -14492,15 +14498,15 @@
         <v>1750</v>
       </c>
       <c r="B986" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B987" t="s">
         <v>1751</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -14524,12 +14530,12 @@
         <v>1757</v>
       </c>
       <c r="B990" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B991" t="s">
         <v>1759</v>
@@ -14548,12 +14554,12 @@
         <v>1762</v>
       </c>
       <c r="B993" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B994" t="s">
         <v>1764</v>
@@ -14612,20 +14618,20 @@
         <v>1777</v>
       </c>
       <c r="B1001" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1002" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1003" t="s">
         <v>1780</v>
@@ -14644,12 +14650,12 @@
         <v>1783</v>
       </c>
       <c r="B1005" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B1006" t="s">
         <v>1785</v>
@@ -14660,20 +14666,20 @@
         <v>1786</v>
       </c>
       <c r="B1007" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B1008" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B1009" t="s">
         <v>1789</v>
@@ -14708,20 +14714,20 @@
         <v>1796</v>
       </c>
       <c r="B1013" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B1014" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1015" t="s">
         <v>1799</v>
@@ -14740,12 +14746,12 @@
         <v>1802</v>
       </c>
       <c r="B1017" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1018" t="s">
         <v>1804</v>
@@ -14796,12 +14802,12 @@
         <v>1815</v>
       </c>
       <c r="B1024" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1025" t="s">
         <v>1817</v>
@@ -14836,12 +14842,12 @@
         <v>1824</v>
       </c>
       <c r="B1029" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B1030" t="s">
         <v>1826</v>
@@ -14852,12 +14858,12 @@
         <v>1827</v>
       </c>
       <c r="B1031" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1032" t="s">
         <v>1829</v>
@@ -14876,12 +14882,12 @@
         <v>1832</v>
       </c>
       <c r="B1034" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1035" t="s">
         <v>1834</v>
@@ -14908,12 +14914,12 @@
         <v>1839</v>
       </c>
       <c r="B1038" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1039" t="s">
         <v>1841</v>
@@ -15052,12 +15058,12 @@
         <v>1874</v>
       </c>
       <c r="B1056" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1057" t="s">
         <v>1876</v>
@@ -15132,12 +15138,12 @@
         <v>1893</v>
       </c>
       <c r="B1066" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1067" t="s">
         <v>1895</v>
@@ -15156,12 +15162,12 @@
         <v>1898</v>
       </c>
       <c r="B1069" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B1070" t="s">
         <v>1900</v>
@@ -15172,20 +15178,20 @@
         <v>1901</v>
       </c>
       <c r="B1071" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1072" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B1073" t="s">
         <v>1904</v>
@@ -15204,12 +15210,12 @@
         <v>1907</v>
       </c>
       <c r="B1075" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1076" t="s">
         <v>1909</v>
@@ -15228,12 +15234,12 @@
         <v>1912</v>
       </c>
       <c r="B1078" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B1079" t="s">
         <v>1914</v>
@@ -15308,12 +15314,12 @@
         <v>1931</v>
       </c>
       <c r="B1088" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B1089" t="s">
         <v>1933</v>
@@ -15380,12 +15386,12 @@
         <v>1948</v>
       </c>
       <c r="B1097" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B1098" t="s">
         <v>1950</v>
@@ -15396,20 +15402,20 @@
         <v>1951</v>
       </c>
       <c r="B1099" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B1100" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B1101" t="s">
         <v>1954</v>
@@ -15444,12 +15450,12 @@
         <v>1961</v>
       </c>
       <c r="B1105" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B1106" t="s">
         <v>1963</v>
@@ -15460,12 +15466,12 @@
         <v>1964</v>
       </c>
       <c r="B1107" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1108" t="s">
         <v>1966</v>
@@ -15620,12 +15626,12 @@
         <v>2003</v>
       </c>
       <c r="B1127" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1128" t="s">
         <v>2005</v>
@@ -15636,12 +15642,12 @@
         <v>2006</v>
       </c>
       <c r="B1129" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B1130" t="s">
         <v>2008</v>
@@ -15652,12 +15658,12 @@
         <v>2009</v>
       </c>
       <c r="B1131" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B1132" t="s">
         <v>2011</v>
@@ -15676,28 +15682,28 @@
         <v>2014</v>
       </c>
       <c r="B1134" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B1135" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B1136" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B1137" t="s">
         <v>2018</v>
@@ -15780,12 +15786,12 @@
         <v>2037</v>
       </c>
       <c r="B1147" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B1148" t="s">
         <v>2039</v>
@@ -15828,20 +15834,20 @@
         <v>2048</v>
       </c>
       <c r="B1153" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B1154" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B1155" t="s">
         <v>2051</v>
@@ -15876,12 +15882,12 @@
         <v>2058</v>
       </c>
       <c r="B1159" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B1160" t="s">
         <v>2060</v>
@@ -15908,28 +15914,28 @@
         <v>2065</v>
       </c>
       <c r="B1163" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B1164" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B1165" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B1166" t="s">
         <v>2069</v>
@@ -15948,12 +15954,12 @@
         <v>2072</v>
       </c>
       <c r="B1168" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B1169" t="s">
         <v>2074</v>
@@ -15967,8 +15973,16 @@
         <v>2076</v>
       </c>
     </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2078</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/lt/headTags.xlsx
+++ b/lang/lt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2082">
   <si>
     <t>en</t>
   </si>
@@ -3998,6 +3998,9 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -6606,7 +6609,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -12544,20 +12547,20 @@
         <v>1327</v>
       </c>
       <c r="B741" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B742" t="s">
         <v>1329</v>
-      </c>
-      <c r="B742" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B743" t="s">
         <v>1331</v>
@@ -12576,108 +12579,108 @@
         <v>1333</v>
       </c>
       <c r="B745" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B746" t="s">
         <v>1335</v>
-      </c>
-      <c r="B746" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B747" t="s">
         <v>1337</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B748" t="s">
         <v>1339</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B749" t="s">
         <v>1341</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B750" t="s">
         <v>1343</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B751" t="s">
         <v>1345</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B752" t="s">
         <v>1347</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B753" t="s">
         <v>1349</v>
-      </c>
-      <c r="B753" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B754" t="s">
         <v>1351</v>
-      </c>
-      <c r="B754" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B755" t="s">
         <v>1353</v>
-      </c>
-      <c r="B755" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B756" t="s">
         <v>1355</v>
-      </c>
-      <c r="B756" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B757" t="s">
         <v>1357</v>
-      </c>
-      <c r="B757" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B758" t="s">
         <v>1359</v>
@@ -12704,44 +12707,44 @@
         <v>1362</v>
       </c>
       <c r="B761" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B762" t="s">
         <v>1364</v>
-      </c>
-      <c r="B762" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B763" t="s">
         <v>1366</v>
-      </c>
-      <c r="B763" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B764" t="s">
         <v>1368</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B765" t="s">
         <v>1370</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B766" t="s">
         <v>1372</v>
@@ -12752,108 +12755,108 @@
         <v>1373</v>
       </c>
       <c r="B767" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B768" t="s">
         <v>1375</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B769" t="s">
         <v>1377</v>
-      </c>
-      <c r="B769" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B770" t="s">
         <v>1379</v>
-      </c>
-      <c r="B770" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B771" t="s">
         <v>1381</v>
-      </c>
-      <c r="B771" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B772" t="s">
         <v>1383</v>
-      </c>
-      <c r="B772" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B773" t="s">
         <v>1385</v>
-      </c>
-      <c r="B773" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B774" t="s">
         <v>1387</v>
-      </c>
-      <c r="B774" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B775" t="s">
         <v>1389</v>
-      </c>
-      <c r="B775" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B776" t="s">
         <v>1391</v>
-      </c>
-      <c r="B776" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B777" t="s">
         <v>1393</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B778" t="s">
         <v>1395</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B779" t="s">
         <v>1397</v>
-      </c>
-      <c r="B779" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B780" t="s">
         <v>1399</v>
@@ -12880,20 +12883,20 @@
         <v>1402</v>
       </c>
       <c r="B783" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B784" t="s">
         <v>1404</v>
-      </c>
-      <c r="B784" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B785" t="s">
         <v>1406</v>
@@ -12904,20 +12907,20 @@
         <v>1407</v>
       </c>
       <c r="B786" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B787" t="s">
         <v>1409</v>
-      </c>
-      <c r="B787" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B788" t="s">
         <v>1411</v>
@@ -12928,20 +12931,20 @@
         <v>1412</v>
       </c>
       <c r="B789" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B790" t="s">
         <v>1414</v>
-      </c>
-      <c r="B790" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B791" t="s">
         <v>1416</v>
@@ -12968,12 +12971,12 @@
         <v>1419</v>
       </c>
       <c r="B794" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B795" t="s">
         <v>1421</v>
@@ -12984,68 +12987,68 @@
         <v>1422</v>
       </c>
       <c r="B796" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B797" t="s">
         <v>1424</v>
-      </c>
-      <c r="B797" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B798" t="s">
         <v>1426</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B799" t="s">
         <v>1428</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B800" t="s">
         <v>1430</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B801" t="s">
         <v>1432</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B802" t="s">
         <v>1434</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B803" t="s">
         <v>1436</v>
-      </c>
-      <c r="B803" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B804" t="s">
         <v>1438</v>
@@ -13064,36 +13067,36 @@
         <v>1440</v>
       </c>
       <c r="B806" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B807" t="s">
         <v>1442</v>
-      </c>
-      <c r="B807" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B808" t="s">
         <v>1444</v>
-      </c>
-      <c r="B808" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B809" t="s">
         <v>1446</v>
-      </c>
-      <c r="B809" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B810" t="s">
         <v>1448</v>
@@ -13104,20 +13107,20 @@
         <v>1449</v>
       </c>
       <c r="B811" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B812" t="s">
         <v>1451</v>
-      </c>
-      <c r="B812" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B813" t="s">
         <v>1453</v>
@@ -13128,20 +13131,20 @@
         <v>1454</v>
       </c>
       <c r="B814" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B815" t="s">
         <v>1456</v>
-      </c>
-      <c r="B815" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B816" t="s">
         <v>1458</v>
@@ -13152,28 +13155,28 @@
         <v>1459</v>
       </c>
       <c r="B817" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B818" t="s">
         <v>1461</v>
-      </c>
-      <c r="B818" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B819" t="s">
         <v>1463</v>
-      </c>
-      <c r="B819" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B820" t="s">
         <v>1465</v>
@@ -13184,12 +13187,12 @@
         <v>1466</v>
       </c>
       <c r="B821" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B822" t="s">
         <v>1468</v>
@@ -13200,44 +13203,44 @@
         <v>1469</v>
       </c>
       <c r="B823" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B824" t="s">
         <v>1471</v>
-      </c>
-      <c r="B824" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B825" t="s">
         <v>1473</v>
-      </c>
-      <c r="B825" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B826" t="s">
         <v>1475</v>
-      </c>
-      <c r="B826" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B827" t="s">
         <v>1477</v>
-      </c>
-      <c r="B827" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B828" t="s">
         <v>1479</v>
@@ -13272,68 +13275,68 @@
         <v>1483</v>
       </c>
       <c r="B832" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B833" t="s">
         <v>1485</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B834" t="s">
         <v>1487</v>
-      </c>
-      <c r="B834" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B835" t="s">
         <v>1489</v>
-      </c>
-      <c r="B835" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B836" t="s">
         <v>1491</v>
-      </c>
-      <c r="B836" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B837" t="s">
         <v>1493</v>
-      </c>
-      <c r="B837" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B838" t="s">
         <v>1495</v>
-      </c>
-      <c r="B838" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B839" t="s">
         <v>1497</v>
-      </c>
-      <c r="B839" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B840" t="s">
         <v>1499</v>
@@ -13360,108 +13363,108 @@
         <v>1502</v>
       </c>
       <c r="B843" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B844" t="s">
         <v>1504</v>
-      </c>
-      <c r="B844" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B845" t="s">
         <v>1506</v>
-      </c>
-      <c r="B845" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B846" t="s">
         <v>1508</v>
-      </c>
-      <c r="B846" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B847" t="s">
         <v>1510</v>
-      </c>
-      <c r="B847" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B848" t="s">
         <v>1512</v>
-      </c>
-      <c r="B848" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B849" t="s">
         <v>1514</v>
-      </c>
-      <c r="B849" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B850" t="s">
         <v>1516</v>
-      </c>
-      <c r="B850" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B851" t="s">
         <v>1518</v>
-      </c>
-      <c r="B851" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B852" t="s">
         <v>1520</v>
-      </c>
-      <c r="B852" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B853" t="s">
         <v>1522</v>
-      </c>
-      <c r="B853" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B854" t="s">
         <v>1524</v>
-      </c>
-      <c r="B854" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B855" t="s">
         <v>1526</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B856" t="s">
         <v>1528</v>
@@ -13480,12 +13483,12 @@
         <v>1530</v>
       </c>
       <c r="B858" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B859" t="s">
         <v>1532</v>
@@ -13496,12 +13499,12 @@
         <v>1533</v>
       </c>
       <c r="B860" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B861" t="s">
         <v>1535</v>
@@ -13512,108 +13515,108 @@
         <v>1536</v>
       </c>
       <c r="B862" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B863" t="s">
         <v>1538</v>
-      </c>
-      <c r="B863" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B864" t="s">
         <v>1540</v>
-      </c>
-      <c r="B864" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B865" t="s">
         <v>1542</v>
-      </c>
-      <c r="B865" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B866" t="s">
         <v>1544</v>
-      </c>
-      <c r="B866" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B867" t="s">
         <v>1546</v>
-      </c>
-      <c r="B867" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B868" t="s">
         <v>1548</v>
-      </c>
-      <c r="B868" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B869" t="s">
         <v>1550</v>
-      </c>
-      <c r="B869" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B870" t="s">
         <v>1552</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B871" t="s">
         <v>1554</v>
-      </c>
-      <c r="B871" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B872" t="s">
         <v>1556</v>
-      </c>
-      <c r="B872" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B873" t="s">
         <v>1558</v>
-      </c>
-      <c r="B873" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B874" t="s">
         <v>1560</v>
-      </c>
-      <c r="B874" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B875" t="s">
         <v>1562</v>
@@ -13632,28 +13635,28 @@
         <v>1564</v>
       </c>
       <c r="B877" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B878" t="s">
         <v>1566</v>
-      </c>
-      <c r="B878" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B879" t="s">
         <v>1568</v>
-      </c>
-      <c r="B879" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B880" t="s">
         <v>1570</v>
@@ -13664,20 +13667,20 @@
         <v>1571</v>
       </c>
       <c r="B881" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B882" t="s">
         <v>1573</v>
-      </c>
-      <c r="B882" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B883" t="s">
         <v>1575</v>
@@ -13688,12 +13691,12 @@
         <v>1576</v>
       </c>
       <c r="B884" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B885" t="s">
         <v>1578</v>
@@ -13704,12 +13707,12 @@
         <v>1579</v>
       </c>
       <c r="B886" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B887" t="s">
         <v>1581</v>
@@ -13720,12 +13723,12 @@
         <v>1582</v>
       </c>
       <c r="B888" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B889" t="s">
         <v>1584</v>
@@ -13736,60 +13739,60 @@
         <v>1585</v>
       </c>
       <c r="B890" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B891" t="s">
         <v>1587</v>
-      </c>
-      <c r="B891" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B892" t="s">
         <v>1589</v>
-      </c>
-      <c r="B892" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B893" t="s">
         <v>1591</v>
-      </c>
-      <c r="B893" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B894" t="s">
         <v>1593</v>
-      </c>
-      <c r="B894" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B895" t="s">
         <v>1595</v>
-      </c>
-      <c r="B895" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B896" t="s">
         <v>1597</v>
-      </c>
-      <c r="B896" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B897" t="s">
         <v>1599</v>
@@ -13800,28 +13803,28 @@
         <v>1600</v>
       </c>
       <c r="B898" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B899" t="s">
         <v>1602</v>
-      </c>
-      <c r="B899" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B900" t="s">
         <v>1604</v>
-      </c>
-      <c r="B900" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B901" t="s">
         <v>1606</v>
@@ -13832,12 +13835,12 @@
         <v>1607</v>
       </c>
       <c r="B902" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B903" t="s">
         <v>1609</v>
@@ -13856,12 +13859,12 @@
         <v>1611</v>
       </c>
       <c r="B905" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B906" t="s">
         <v>1613</v>
@@ -13872,36 +13875,36 @@
         <v>1614</v>
       </c>
       <c r="B907" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B908" t="s">
         <v>1616</v>
-      </c>
-      <c r="B908" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B909" t="s">
         <v>1618</v>
-      </c>
-      <c r="B909" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B910" t="s">
         <v>1620</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B911" t="s">
         <v>1622</v>
@@ -13928,44 +13931,44 @@
         <v>1625</v>
       </c>
       <c r="B914" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B915" t="s">
         <v>1627</v>
-      </c>
-      <c r="B915" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B916" t="s">
         <v>1629</v>
-      </c>
-      <c r="B916" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B917" t="s">
         <v>1631</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B918" t="s">
         <v>1633</v>
-      </c>
-      <c r="B918" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B919" t="s">
         <v>1635</v>
@@ -13984,36 +13987,36 @@
         <v>1637</v>
       </c>
       <c r="B921" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B922" t="s">
         <v>1639</v>
-      </c>
-      <c r="B922" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B923" t="s">
         <v>1641</v>
-      </c>
-      <c r="B923" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B924" t="s">
         <v>1643</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B925" t="s">
         <v>1645</v>
@@ -14024,12 +14027,12 @@
         <v>1646</v>
       </c>
       <c r="B926" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B927" t="s">
         <v>1648</v>
@@ -14048,84 +14051,84 @@
         <v>1650</v>
       </c>
       <c r="B929" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B930" t="s">
         <v>1652</v>
-      </c>
-      <c r="B930" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B931" t="s">
         <v>1654</v>
-      </c>
-      <c r="B931" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B932" t="s">
         <v>1656</v>
-      </c>
-      <c r="B932" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B933" t="s">
         <v>1658</v>
-      </c>
-      <c r="B933" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B934" t="s">
         <v>1660</v>
-      </c>
-      <c r="B934" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B935" t="s">
         <v>1662</v>
-      </c>
-      <c r="B935" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B936" t="s">
         <v>1664</v>
-      </c>
-      <c r="B936" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B937" t="s">
         <v>1666</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B938" t="s">
         <v>1668</v>
-      </c>
-      <c r="B938" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B939" t="s">
         <v>1670</v>
@@ -14144,20 +14147,20 @@
         <v>1672</v>
       </c>
       <c r="B941" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B942" t="s">
         <v>1674</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B943" t="s">
         <v>1676</v>
@@ -14168,12 +14171,12 @@
         <v>1677</v>
       </c>
       <c r="B944" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B945" t="s">
         <v>1679</v>
@@ -14200,44 +14203,44 @@
         <v>1682</v>
       </c>
       <c r="B948" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B949" t="s">
         <v>1684</v>
-      </c>
-      <c r="B949" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B950" t="s">
         <v>1686</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B951" t="s">
         <v>1688</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B952" t="s">
         <v>1690</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B953" t="s">
         <v>1692</v>
@@ -14256,60 +14259,60 @@
         <v>1694</v>
       </c>
       <c r="B955" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B956" t="s">
         <v>1696</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B957" t="s">
         <v>1698</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B958" t="s">
         <v>1700</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B959" t="s">
         <v>1702</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B960" t="s">
         <v>1704</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B961" t="s">
         <v>1706</v>
-      </c>
-      <c r="B961" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B962" t="s">
         <v>1708</v>
@@ -14328,100 +14331,100 @@
         <v>1710</v>
       </c>
       <c r="B964" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B965" t="s">
         <v>1712</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B966" t="s">
         <v>1714</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B967" t="s">
         <v>1716</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B968" t="s">
         <v>1718</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B969" t="s">
         <v>1720</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B970" t="s">
         <v>1722</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B971" t="s">
         <v>1724</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B972" t="s">
         <v>1726</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B973" t="s">
         <v>1728</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B974" t="s">
         <v>1730</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B975" t="s">
         <v>1732</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B976" t="s">
         <v>1734</v>
@@ -14440,36 +14443,36 @@
         <v>1736</v>
       </c>
       <c r="B978" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B979" t="s">
         <v>1738</v>
-      </c>
-      <c r="B979" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B980" t="s">
         <v>1740</v>
-      </c>
-      <c r="B980" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B981" t="s">
         <v>1742</v>
-      </c>
-      <c r="B981" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B982" t="s">
         <v>1744</v>
@@ -14480,12 +14483,12 @@
         <v>1745</v>
       </c>
       <c r="B983" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B984" t="s">
         <v>1747</v>
@@ -14496,15 +14499,15 @@
         <v>1748</v>
       </c>
       <c r="B985" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B986" t="s">
         <v>1750</v>
-      </c>
-      <c r="B986" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -14512,28 +14515,28 @@
         <v>1751</v>
       </c>
       <c r="B987" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B988" t="s">
         <v>1753</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B989" t="s">
         <v>1755</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B990" t="s">
         <v>1757</v>
@@ -14544,20 +14547,20 @@
         <v>1758</v>
       </c>
       <c r="B991" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B992" t="s">
         <v>1760</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B993" t="s">
         <v>1762</v>
@@ -14568,60 +14571,60 @@
         <v>1763</v>
       </c>
       <c r="B994" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B995" t="s">
         <v>1765</v>
-      </c>
-      <c r="B995" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B996" t="s">
         <v>1767</v>
-      </c>
-      <c r="B996" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B997" t="s">
         <v>1769</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B998" t="s">
         <v>1771</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B999" t="s">
         <v>1773</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1000" t="s">
         <v>1775</v>
-      </c>
-      <c r="B1000" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B1001" t="s">
         <v>1777</v>
@@ -14640,20 +14643,20 @@
         <v>1779</v>
       </c>
       <c r="B1003" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1004" t="s">
         <v>1781</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B1005" t="s">
         <v>1783</v>
@@ -14664,12 +14667,12 @@
         <v>1784</v>
       </c>
       <c r="B1006" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B1007" t="s">
         <v>1786</v>
@@ -14688,36 +14691,36 @@
         <v>1788</v>
       </c>
       <c r="B1009" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1790</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1011" t="s">
         <v>1792</v>
-      </c>
-      <c r="B1011" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1012" t="s">
         <v>1794</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B1013" t="s">
         <v>1796</v>
@@ -14736,20 +14739,20 @@
         <v>1798</v>
       </c>
       <c r="B1015" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1800</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1017" t="s">
         <v>1802</v>
@@ -14760,52 +14763,52 @@
         <v>1803</v>
       </c>
       <c r="B1018" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1805</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1807</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1021" t="s">
         <v>1809</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1022" t="s">
         <v>1811</v>
-      </c>
-      <c r="B1022" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1023" t="s">
         <v>1813</v>
-      </c>
-      <c r="B1023" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B1024" t="s">
         <v>1815</v>
@@ -14816,36 +14819,36 @@
         <v>1816</v>
       </c>
       <c r="B1025" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1026" t="s">
         <v>1818</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1027" t="s">
         <v>1820</v>
-      </c>
-      <c r="B1027" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1028" t="s">
         <v>1822</v>
-      </c>
-      <c r="B1028" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B1029" t="s">
         <v>1824</v>
@@ -14856,12 +14859,12 @@
         <v>1825</v>
       </c>
       <c r="B1030" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B1031" t="s">
         <v>1827</v>
@@ -14872,20 +14875,20 @@
         <v>1828</v>
       </c>
       <c r="B1032" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1830</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B1034" t="s">
         <v>1832</v>
@@ -14896,28 +14899,28 @@
         <v>1833</v>
       </c>
       <c r="B1035" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1835</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1037" t="s">
         <v>1837</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B1038" t="s">
         <v>1839</v>
@@ -14928,148 +14931,148 @@
         <v>1840</v>
       </c>
       <c r="B1039" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1842</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1041" t="s">
         <v>1844</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1042" t="s">
         <v>1846</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1848</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1044" t="s">
         <v>1850</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1045" t="s">
         <v>1852</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1046" t="s">
         <v>1854</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1047" t="s">
         <v>1856</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1048" t="s">
         <v>1858</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1860</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1862</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1864</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1866</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1868</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1870</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1872</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1056" t="s">
         <v>1874</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B1057" t="s">
         <v>1876</v>
@@ -15080,76 +15083,76 @@
         <v>1877</v>
       </c>
       <c r="B1058" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1059" t="s">
         <v>1879</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1060" t="s">
         <v>1881</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1883</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1885</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1887</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1889</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1891</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1893</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B1067" t="s">
         <v>1895</v>
@@ -15160,20 +15163,20 @@
         <v>1896</v>
       </c>
       <c r="B1068" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1069" t="s">
         <v>1898</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B1070" t="s">
         <v>1900</v>
@@ -15184,12 +15187,12 @@
         <v>1901</v>
       </c>
       <c r="B1071" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B1072" t="s">
         <v>1903</v>
@@ -15208,20 +15211,20 @@
         <v>1905</v>
       </c>
       <c r="B1074" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1075" t="s">
         <v>1907</v>
-      </c>
-      <c r="B1075" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B1076" t="s">
         <v>1909</v>
@@ -15232,20 +15235,20 @@
         <v>1910</v>
       </c>
       <c r="B1077" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1078" t="s">
         <v>1912</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1079" t="s">
         <v>1914</v>
@@ -15256,76 +15259,76 @@
         <v>1915</v>
       </c>
       <c r="B1080" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1081" t="s">
         <v>1917</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1082" t="s">
         <v>1919</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1083" t="s">
         <v>1921</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1084" t="s">
         <v>1923</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1925</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1927</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1087" t="s">
         <v>1929</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1088" t="s">
         <v>1931</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B1089" t="s">
         <v>1933</v>
@@ -15336,68 +15339,68 @@
         <v>1934</v>
       </c>
       <c r="B1090" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1936</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1937</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1938</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1939</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1093" t="s">
         <v>1940</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1094" t="s">
         <v>1942</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1095" t="s">
         <v>1944</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1096" t="s">
         <v>1946</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1097" t="s">
         <v>1948</v>
-      </c>
-      <c r="B1097" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B1098" t="s">
         <v>1950</v>
@@ -15408,12 +15411,12 @@
         <v>1951</v>
       </c>
       <c r="B1099" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B1100" t="s">
         <v>1953</v>
@@ -15432,36 +15435,36 @@
         <v>1955</v>
       </c>
       <c r="B1102" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1957</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1959</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1961</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1106" t="s">
         <v>1963</v>
@@ -15472,12 +15475,12 @@
         <v>1964</v>
       </c>
       <c r="B1107" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B1108" t="s">
         <v>1966</v>
@@ -15488,156 +15491,156 @@
         <v>1967</v>
       </c>
       <c r="B1109" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1110" t="s">
         <v>1969</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1111" t="s">
         <v>1971</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1972</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1973</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1975</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1977</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1979</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1981</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1983</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1985</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1987</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1989</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1991</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1993</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1995</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1997</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1999</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1126" t="s">
         <v>2001</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1127" t="s">
         <v>2003</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1128" t="s">
         <v>2005</v>
@@ -15648,12 +15651,12 @@
         <v>2006</v>
       </c>
       <c r="B1129" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B1130" t="s">
         <v>2008</v>
@@ -15664,12 +15667,12 @@
         <v>2009</v>
       </c>
       <c r="B1131" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B1132" t="s">
         <v>2011</v>
@@ -15680,20 +15683,20 @@
         <v>2012</v>
       </c>
       <c r="B1133" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1134" t="s">
         <v>2014</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B1135" t="s">
         <v>2016</v>
@@ -15720,84 +15723,84 @@
         <v>2019</v>
       </c>
       <c r="B1138" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1139" t="s">
         <v>2021</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>2022</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1140" t="s">
         <v>2023</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1141" t="s">
         <v>2025</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>2026</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1142" t="s">
         <v>2027</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1143" t="s">
         <v>2029</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1144" t="s">
         <v>2031</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1145" t="s">
         <v>2033</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1146" t="s">
         <v>2035</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1147" t="s">
         <v>2037</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>2038</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B1148" t="s">
         <v>2039</v>
@@ -15808,44 +15811,44 @@
         <v>2040</v>
       </c>
       <c r="B1149" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1150" t="s">
         <v>2042</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1151" t="s">
         <v>2044</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1152" t="s">
         <v>2046</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>2047</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1153" t="s">
         <v>2048</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B1154" t="s">
         <v>2050</v>
@@ -15864,36 +15867,36 @@
         <v>2052</v>
       </c>
       <c r="B1156" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1157" t="s">
         <v>2054</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>2055</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1158" t="s">
         <v>2056</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1159" t="s">
         <v>2058</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B1160" t="s">
         <v>2060</v>
@@ -15904,28 +15907,28 @@
         <v>2061</v>
       </c>
       <c r="B1161" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1162" t="s">
         <v>2063</v>
-      </c>
-      <c r="B1162" t="s">
-        <v>2064</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1163" t="s">
         <v>2065</v>
-      </c>
-      <c r="B1163" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B1164" t="s">
         <v>2067</v>
@@ -15952,20 +15955,20 @@
         <v>2070</v>
       </c>
       <c r="B1167" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B1168" t="s">
         <v>2072</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1169" t="s">
         <v>2074</v>
@@ -15976,27 +15979,35 @@
         <v>2075</v>
       </c>
       <c r="B1170" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1171" t="s">
         <v>2077</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>2078</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1172" t="s">
         <v>2079</v>
       </c>
-      <c r="B1172" t="s">
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
         <v>2080</v>
       </c>
+      <c r="B1173" t="s">
+        <v>2081</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/lt/headTags.xlsx
+++ b/lang/lt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2084">
   <si>
     <t>en</t>
   </si>
@@ -2267,6 +2267,12 @@
   </si>
   <si>
     <t>Šriftas (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Šriftas (Red Chiseled Sandstone)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -6609,7 +6615,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10059,28 +10065,28 @@
         <v>778</v>
       </c>
       <c r="B430" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B431" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B432" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B433" t="s">
         <v>782</v>
@@ -10179,12 +10185,12 @@
         <v>805</v>
       </c>
       <c r="B445" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B446" t="s">
         <v>807</v>
@@ -10195,12 +10201,12 @@
         <v>808</v>
       </c>
       <c r="B447" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B448" t="s">
         <v>810</v>
@@ -10315,12 +10321,12 @@
         <v>837</v>
       </c>
       <c r="B462" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B463" t="s">
         <v>839</v>
@@ -10331,20 +10337,20 @@
         <v>840</v>
       </c>
       <c r="B464" t="s">
-        <v>558</v>
+        <v>841</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B465" t="s">
-        <v>841</v>
+        <v>558</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B466" t="s">
         <v>843</v>
@@ -10355,12 +10361,12 @@
         <v>844</v>
       </c>
       <c r="B467" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B468" t="s">
         <v>846</v>
@@ -10379,23 +10385,23 @@
         <v>849</v>
       </c>
       <c r="B470" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B471" t="s">
-        <v>558</v>
+        <v>851</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B472" t="s">
-        <v>852</v>
+        <v>558</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10403,12 +10409,12 @@
         <v>853</v>
       </c>
       <c r="B473" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B474" t="s">
         <v>855</v>
@@ -10459,20 +10465,20 @@
         <v>866</v>
       </c>
       <c r="B480" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B481" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B482" t="s">
         <v>869</v>
@@ -10483,12 +10489,12 @@
         <v>870</v>
       </c>
       <c r="B483" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B484" t="s">
         <v>872</v>
@@ -10499,28 +10505,28 @@
         <v>873</v>
       </c>
       <c r="B485" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B486" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B487" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B488" t="s">
         <v>877</v>
@@ -10707,12 +10713,12 @@
         <v>922</v>
       </c>
       <c r="B511" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B512" t="s">
         <v>924</v>
@@ -10859,12 +10865,12 @@
         <v>959</v>
       </c>
       <c r="B530" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B531" t="s">
         <v>961</v>
@@ -10883,20 +10889,20 @@
         <v>964</v>
       </c>
       <c r="B533" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B534" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B535" t="s">
         <v>967</v>
@@ -10915,28 +10921,28 @@
         <v>970</v>
       </c>
       <c r="B537" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B538" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B539" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B540" t="s">
         <v>974</v>
@@ -10971,20 +10977,20 @@
         <v>981</v>
       </c>
       <c r="B544" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B545" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B546" t="s">
         <v>984</v>
@@ -10995,12 +11001,12 @@
         <v>985</v>
       </c>
       <c r="B547" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B548" t="s">
         <v>987</v>
@@ -11011,12 +11017,12 @@
         <v>988</v>
       </c>
       <c r="B549" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B550" t="s">
         <v>990</v>
@@ -11115,12 +11121,12 @@
         <v>1013</v>
       </c>
       <c r="B562" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B563" t="s">
         <v>1015</v>
@@ -11147,12 +11153,12 @@
         <v>1020</v>
       </c>
       <c r="B566" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B567" t="s">
         <v>1022</v>
@@ -11203,12 +11209,12 @@
         <v>1033</v>
       </c>
       <c r="B573" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B574" t="s">
         <v>1035</v>
@@ -11219,28 +11225,28 @@
         <v>1036</v>
       </c>
       <c r="B575" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B576" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B577" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B578" t="s">
         <v>1040</v>
@@ -11347,12 +11353,12 @@
         <v>1065</v>
       </c>
       <c r="B591" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B592" t="s">
         <v>1067</v>
@@ -11419,28 +11425,28 @@
         <v>1082</v>
       </c>
       <c r="B600" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B601" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B602" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B603" t="s">
         <v>1086</v>
@@ -11571,12 +11577,12 @@
         <v>1117</v>
       </c>
       <c r="B619" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B620" t="s">
         <v>1119</v>
@@ -11595,12 +11601,12 @@
         <v>1122</v>
       </c>
       <c r="B622" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B623" t="s">
         <v>1124</v>
@@ -11635,12 +11641,12 @@
         <v>1131</v>
       </c>
       <c r="B627" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B628" t="s">
         <v>1133</v>
@@ -11651,12 +11657,12 @@
         <v>1134</v>
       </c>
       <c r="B629" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B630" t="s">
         <v>1136</v>
@@ -11675,52 +11681,52 @@
         <v>1139</v>
       </c>
       <c r="B632" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B633" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B634" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B635" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B636" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B637" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B638" t="s">
         <v>1146</v>
@@ -11731,36 +11737,36 @@
         <v>1147</v>
       </c>
       <c r="B639" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B640" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B641" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B642" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B643" t="s">
         <v>1152</v>
@@ -11795,28 +11801,28 @@
         <v>1159</v>
       </c>
       <c r="B647" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B648" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B649" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B650" t="s">
         <v>1163</v>
@@ -11827,12 +11833,12 @@
         <v>1164</v>
       </c>
       <c r="B651" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B652" t="s">
         <v>1166</v>
@@ -12027,12 +12033,12 @@
         <v>1213</v>
       </c>
       <c r="B676" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B677" t="s">
         <v>1215</v>
@@ -12059,20 +12065,20 @@
         <v>1220</v>
       </c>
       <c r="B680" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B681" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B682" t="s">
         <v>1223</v>
@@ -12203,12 +12209,12 @@
         <v>1254</v>
       </c>
       <c r="B698" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B699" t="s">
         <v>1256</v>
@@ -12219,20 +12225,20 @@
         <v>1257</v>
       </c>
       <c r="B700" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B701" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B702" t="s">
         <v>1260</v>
@@ -12243,28 +12249,28 @@
         <v>1261</v>
       </c>
       <c r="B703" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B704" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B705" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B706" t="s">
         <v>1265</v>
@@ -12283,20 +12289,20 @@
         <v>1268</v>
       </c>
       <c r="B708" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B709" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B710" t="s">
         <v>1271</v>
@@ -12395,20 +12401,20 @@
         <v>1294</v>
       </c>
       <c r="B722" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B723" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B724" t="s">
         <v>1297</v>
@@ -12451,12 +12457,12 @@
         <v>1306</v>
       </c>
       <c r="B729" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B730" t="s">
         <v>1308</v>
@@ -12507,12 +12513,12 @@
         <v>1319</v>
       </c>
       <c r="B736" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B737" t="s">
         <v>1321</v>
@@ -12539,20 +12545,20 @@
         <v>1326</v>
       </c>
       <c r="B740" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B741" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B742" t="s">
         <v>1329</v>
@@ -12571,20 +12577,20 @@
         <v>1332</v>
       </c>
       <c r="B744" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B745" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B746" t="s">
         <v>1335</v>
@@ -12691,28 +12697,28 @@
         <v>1360</v>
       </c>
       <c r="B759" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B760" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B761" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B762" t="s">
         <v>1364</v>
@@ -12755,12 +12761,12 @@
         <v>1373</v>
       </c>
       <c r="B767" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B768" t="s">
         <v>1375</v>
@@ -12867,28 +12873,28 @@
         <v>1400</v>
       </c>
       <c r="B781" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B782" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B783" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B784" t="s">
         <v>1404</v>
@@ -12907,12 +12913,12 @@
         <v>1407</v>
       </c>
       <c r="B786" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B787" t="s">
         <v>1409</v>
@@ -12931,12 +12937,12 @@
         <v>1412</v>
       </c>
       <c r="B789" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B790" t="s">
         <v>1414</v>
@@ -12955,28 +12961,28 @@
         <v>1417</v>
       </c>
       <c r="B792" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B793" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B794" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B795" t="s">
         <v>1421</v>
@@ -12987,12 +12993,12 @@
         <v>1422</v>
       </c>
       <c r="B796" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B797" t="s">
         <v>1424</v>
@@ -13059,20 +13065,20 @@
         <v>1439</v>
       </c>
       <c r="B805" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B806" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B807" t="s">
         <v>1442</v>
@@ -13107,12 +13113,12 @@
         <v>1449</v>
       </c>
       <c r="B811" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B812" t="s">
         <v>1451</v>
@@ -13131,12 +13137,12 @@
         <v>1454</v>
       </c>
       <c r="B814" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B815" t="s">
         <v>1456</v>
@@ -13155,12 +13161,12 @@
         <v>1459</v>
       </c>
       <c r="B817" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B818" t="s">
         <v>1461</v>
@@ -13187,12 +13193,12 @@
         <v>1466</v>
       </c>
       <c r="B821" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B822" t="s">
         <v>1468</v>
@@ -13203,12 +13209,12 @@
         <v>1469</v>
       </c>
       <c r="B823" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B824" t="s">
         <v>1471</v>
@@ -13251,36 +13257,36 @@
         <v>1480</v>
       </c>
       <c r="B829" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B830" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B831" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B832" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B833" t="s">
         <v>1485</v>
@@ -13347,28 +13353,28 @@
         <v>1500</v>
       </c>
       <c r="B841" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B842" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B843" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B844" t="s">
         <v>1504</v>
@@ -13475,20 +13481,20 @@
         <v>1529</v>
       </c>
       <c r="B857" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B858" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B859" t="s">
         <v>1532</v>
@@ -13499,12 +13505,12 @@
         <v>1533</v>
       </c>
       <c r="B860" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B861" t="s">
         <v>1535</v>
@@ -13515,12 +13521,12 @@
         <v>1536</v>
       </c>
       <c r="B862" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B863" t="s">
         <v>1538</v>
@@ -13627,20 +13633,20 @@
         <v>1563</v>
       </c>
       <c r="B876" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B877" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B878" t="s">
         <v>1566</v>
@@ -13667,12 +13673,12 @@
         <v>1571</v>
       </c>
       <c r="B881" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B882" t="s">
         <v>1573</v>
@@ -13691,12 +13697,12 @@
         <v>1576</v>
       </c>
       <c r="B884" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B885" t="s">
         <v>1578</v>
@@ -13707,12 +13713,12 @@
         <v>1579</v>
       </c>
       <c r="B886" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B887" t="s">
         <v>1581</v>
@@ -13723,12 +13729,12 @@
         <v>1582</v>
       </c>
       <c r="B888" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B889" t="s">
         <v>1584</v>
@@ -13739,12 +13745,12 @@
         <v>1585</v>
       </c>
       <c r="B890" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B891" t="s">
         <v>1587</v>
@@ -13803,12 +13809,12 @@
         <v>1600</v>
       </c>
       <c r="B898" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B899" t="s">
         <v>1602</v>
@@ -13835,12 +13841,12 @@
         <v>1607</v>
       </c>
       <c r="B902" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B903" t="s">
         <v>1609</v>
@@ -13851,20 +13857,20 @@
         <v>1610</v>
       </c>
       <c r="B904" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B905" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B906" t="s">
         <v>1613</v>
@@ -13875,12 +13881,12 @@
         <v>1614</v>
       </c>
       <c r="B907" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B908" t="s">
         <v>1616</v>
@@ -13915,28 +13921,28 @@
         <v>1623</v>
       </c>
       <c r="B912" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B913" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B914" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B915" t="s">
         <v>1627</v>
@@ -13979,20 +13985,20 @@
         <v>1636</v>
       </c>
       <c r="B920" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B921" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B922" t="s">
         <v>1639</v>
@@ -14027,12 +14033,12 @@
         <v>1646</v>
       </c>
       <c r="B926" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B927" t="s">
         <v>1648</v>
@@ -14043,20 +14049,20 @@
         <v>1649</v>
       </c>
       <c r="B928" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B929" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B930" t="s">
         <v>1652</v>
@@ -14139,20 +14145,20 @@
         <v>1671</v>
       </c>
       <c r="B940" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B941" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B942" t="s">
         <v>1674</v>
@@ -14171,12 +14177,12 @@
         <v>1677</v>
       </c>
       <c r="B944" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B945" t="s">
         <v>1679</v>
@@ -14187,28 +14193,28 @@
         <v>1680</v>
       </c>
       <c r="B946" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B947" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B948" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B949" t="s">
         <v>1684</v>
@@ -14251,20 +14257,20 @@
         <v>1693</v>
       </c>
       <c r="B954" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B955" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B956" t="s">
         <v>1696</v>
@@ -14323,20 +14329,20 @@
         <v>1709</v>
       </c>
       <c r="B963" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B964" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B965" t="s">
         <v>1712</v>
@@ -14435,20 +14441,20 @@
         <v>1735</v>
       </c>
       <c r="B977" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B978" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B979" t="s">
         <v>1738</v>
@@ -14483,12 +14489,12 @@
         <v>1745</v>
       </c>
       <c r="B983" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B984" t="s">
         <v>1747</v>
@@ -14499,12 +14505,12 @@
         <v>1748</v>
       </c>
       <c r="B985" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B986" t="s">
         <v>1750</v>
@@ -14515,15 +14521,15 @@
         <v>1751</v>
       </c>
       <c r="B987" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B988" t="s">
         <v>1752</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -14547,12 +14553,12 @@
         <v>1758</v>
       </c>
       <c r="B991" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B992" t="s">
         <v>1760</v>
@@ -14571,12 +14577,12 @@
         <v>1763</v>
       </c>
       <c r="B994" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B995" t="s">
         <v>1765</v>
@@ -14635,20 +14641,20 @@
         <v>1778</v>
       </c>
       <c r="B1002" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1003" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B1004" t="s">
         <v>1781</v>
@@ -14667,12 +14673,12 @@
         <v>1784</v>
       </c>
       <c r="B1006" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B1007" t="s">
         <v>1786</v>
@@ -14683,20 +14689,20 @@
         <v>1787</v>
       </c>
       <c r="B1008" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B1009" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B1010" t="s">
         <v>1790</v>
@@ -14731,20 +14737,20 @@
         <v>1797</v>
       </c>
       <c r="B1014" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1015" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1016" t="s">
         <v>1800</v>
@@ -14763,12 +14769,12 @@
         <v>1803</v>
       </c>
       <c r="B1018" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1019" t="s">
         <v>1805</v>
@@ -14819,12 +14825,12 @@
         <v>1816</v>
       </c>
       <c r="B1025" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1026" t="s">
         <v>1818</v>
@@ -14859,12 +14865,12 @@
         <v>1825</v>
       </c>
       <c r="B1030" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B1031" t="s">
         <v>1827</v>
@@ -14875,12 +14881,12 @@
         <v>1828</v>
       </c>
       <c r="B1032" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1033" t="s">
         <v>1830</v>
@@ -14899,12 +14905,12 @@
         <v>1833</v>
       </c>
       <c r="B1035" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1036" t="s">
         <v>1835</v>
@@ -14931,12 +14937,12 @@
         <v>1840</v>
       </c>
       <c r="B1039" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1040" t="s">
         <v>1842</v>
@@ -15083,12 +15089,12 @@
         <v>1877</v>
       </c>
       <c r="B1058" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B1059" t="s">
         <v>1879</v>
@@ -15163,12 +15169,12 @@
         <v>1896</v>
       </c>
       <c r="B1068" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1069" t="s">
         <v>1898</v>
@@ -15187,12 +15193,12 @@
         <v>1901</v>
       </c>
       <c r="B1071" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1072" t="s">
         <v>1903</v>
@@ -15203,20 +15209,20 @@
         <v>1904</v>
       </c>
       <c r="B1073" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B1074" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B1075" t="s">
         <v>1907</v>
@@ -15235,12 +15241,12 @@
         <v>1910</v>
       </c>
       <c r="B1077" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B1078" t="s">
         <v>1912</v>
@@ -15259,12 +15265,12 @@
         <v>1915</v>
       </c>
       <c r="B1080" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B1081" t="s">
         <v>1917</v>
@@ -15339,12 +15345,12 @@
         <v>1934</v>
       </c>
       <c r="B1090" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B1091" t="s">
         <v>1936</v>
@@ -15411,12 +15417,12 @@
         <v>1951</v>
       </c>
       <c r="B1099" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B1100" t="s">
         <v>1953</v>
@@ -15427,20 +15433,20 @@
         <v>1954</v>
       </c>
       <c r="B1101" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B1102" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1103" t="s">
         <v>1957</v>
@@ -15475,12 +15481,12 @@
         <v>1964</v>
       </c>
       <c r="B1107" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1108" t="s">
         <v>1966</v>
@@ -15491,12 +15497,12 @@
         <v>1967</v>
       </c>
       <c r="B1109" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B1110" t="s">
         <v>1969</v>
@@ -15651,12 +15657,12 @@
         <v>2006</v>
       </c>
       <c r="B1129" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B1130" t="s">
         <v>2008</v>
@@ -15667,12 +15673,12 @@
         <v>2009</v>
       </c>
       <c r="B1131" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B1132" t="s">
         <v>2011</v>
@@ -15683,12 +15689,12 @@
         <v>2012</v>
       </c>
       <c r="B1133" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B1134" t="s">
         <v>2014</v>
@@ -15707,28 +15713,28 @@
         <v>2017</v>
       </c>
       <c r="B1136" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B1137" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B1138" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B1139" t="s">
         <v>2021</v>
@@ -15811,12 +15817,12 @@
         <v>2040</v>
       </c>
       <c r="B1149" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B1150" t="s">
         <v>2042</v>
@@ -15859,20 +15865,20 @@
         <v>2051</v>
       </c>
       <c r="B1155" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B1156" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B1157" t="s">
         <v>2054</v>
@@ -15907,12 +15913,12 @@
         <v>2061</v>
       </c>
       <c r="B1161" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B1162" t="s">
         <v>2063</v>
@@ -15939,28 +15945,28 @@
         <v>2068</v>
       </c>
       <c r="B1165" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="B1166" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B1167" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B1168" t="s">
         <v>2072</v>
@@ -15979,12 +15985,12 @@
         <v>2075</v>
       </c>
       <c r="B1170" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="B1171" t="s">
         <v>2077</v>
@@ -16006,8 +16012,16 @@
         <v>2081</v>
       </c>
     </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2083</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/lt/headTags.xlsx
+++ b/lang/lt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2086">
   <si>
     <t>en</t>
   </si>
@@ -5876,6 +5876,12 @@
   </si>
   <si>
     <t>Sutemų miškas</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Sukta stebuklų šalis</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6615,7 +6621,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15425,12 +15431,12 @@
         <v>1953</v>
       </c>
       <c r="B1100" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1101" t="s">
         <v>1955</v>
@@ -15441,20 +15447,20 @@
         <v>1956</v>
       </c>
       <c r="B1102" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B1103" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B1104" t="s">
         <v>1959</v>
@@ -15489,12 +15495,12 @@
         <v>1966</v>
       </c>
       <c r="B1108" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B1109" t="s">
         <v>1968</v>
@@ -15505,12 +15511,12 @@
         <v>1969</v>
       </c>
       <c r="B1110" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B1111" t="s">
         <v>1971</v>
@@ -15665,12 +15671,12 @@
         <v>2008</v>
       </c>
       <c r="B1130" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B1131" t="s">
         <v>2010</v>
@@ -15681,12 +15687,12 @@
         <v>2011</v>
       </c>
       <c r="B1132" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B1133" t="s">
         <v>2013</v>
@@ -15697,12 +15703,12 @@
         <v>2014</v>
       </c>
       <c r="B1134" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B1135" t="s">
         <v>2016</v>
@@ -15721,28 +15727,28 @@
         <v>2019</v>
       </c>
       <c r="B1137" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B1138" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B1139" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B1140" t="s">
         <v>2023</v>
@@ -15825,12 +15831,12 @@
         <v>2042</v>
       </c>
       <c r="B1150" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B1151" t="s">
         <v>2044</v>
@@ -15873,20 +15879,20 @@
         <v>2053</v>
       </c>
       <c r="B1156" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B1157" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B1158" t="s">
         <v>2056</v>
@@ -15921,12 +15927,12 @@
         <v>2063</v>
       </c>
       <c r="B1162" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B1163" t="s">
         <v>2065</v>
@@ -15953,28 +15959,28 @@
         <v>2070</v>
       </c>
       <c r="B1166" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B1167" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B1168" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B1169" t="s">
         <v>2074</v>
@@ -15993,12 +15999,12 @@
         <v>2077</v>
       </c>
       <c r="B1171" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="B1172" t="s">
         <v>2079</v>
@@ -16020,8 +16026,16 @@
         <v>2083</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2085</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/lt/headTags.xlsx
+++ b/lang/lt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2088">
   <si>
     <t>en</t>
   </si>
@@ -3170,6 +3170,12 @@
   </si>
   <si>
     <t>Hypixel (Minionas)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Hipikselis (Mutacijos) Žyma</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6621,7 +6627,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11367,12 +11373,12 @@
         <v>1067</v>
       </c>
       <c r="B592" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B593" t="s">
         <v>1069</v>
@@ -11439,28 +11445,28 @@
         <v>1084</v>
       </c>
       <c r="B601" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B602" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B603" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B604" t="s">
         <v>1088</v>
@@ -11591,12 +11597,12 @@
         <v>1119</v>
       </c>
       <c r="B620" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B621" t="s">
         <v>1121</v>
@@ -11615,12 +11621,12 @@
         <v>1124</v>
       </c>
       <c r="B623" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B624" t="s">
         <v>1126</v>
@@ -11655,12 +11661,12 @@
         <v>1133</v>
       </c>
       <c r="B628" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B629" t="s">
         <v>1135</v>
@@ -11671,12 +11677,12 @@
         <v>1136</v>
       </c>
       <c r="B630" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B631" t="s">
         <v>1138</v>
@@ -11695,52 +11701,52 @@
         <v>1141</v>
       </c>
       <c r="B633" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B634" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B635" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B636" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B637" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B638" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B639" t="s">
         <v>1148</v>
@@ -11751,36 +11757,36 @@
         <v>1149</v>
       </c>
       <c r="B640" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B641" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B642" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B643" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B644" t="s">
         <v>1154</v>
@@ -11815,28 +11821,28 @@
         <v>1161</v>
       </c>
       <c r="B648" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B649" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B650" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B651" t="s">
         <v>1165</v>
@@ -11847,12 +11853,12 @@
         <v>1166</v>
       </c>
       <c r="B652" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B653" t="s">
         <v>1168</v>
@@ -12047,12 +12053,12 @@
         <v>1215</v>
       </c>
       <c r="B677" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B678" t="s">
         <v>1217</v>
@@ -12079,20 +12085,20 @@
         <v>1222</v>
       </c>
       <c r="B681" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B682" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B683" t="s">
         <v>1225</v>
@@ -12223,12 +12229,12 @@
         <v>1256</v>
       </c>
       <c r="B699" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B700" t="s">
         <v>1258</v>
@@ -12239,20 +12245,20 @@
         <v>1259</v>
       </c>
       <c r="B701" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B702" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B703" t="s">
         <v>1262</v>
@@ -12263,28 +12269,28 @@
         <v>1263</v>
       </c>
       <c r="B704" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B705" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B706" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B707" t="s">
         <v>1267</v>
@@ -12303,20 +12309,20 @@
         <v>1270</v>
       </c>
       <c r="B709" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B710" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B711" t="s">
         <v>1273</v>
@@ -12415,20 +12421,20 @@
         <v>1296</v>
       </c>
       <c r="B723" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B724" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B725" t="s">
         <v>1299</v>
@@ -12471,12 +12477,12 @@
         <v>1308</v>
       </c>
       <c r="B730" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B731" t="s">
         <v>1310</v>
@@ -12527,12 +12533,12 @@
         <v>1321</v>
       </c>
       <c r="B737" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B738" t="s">
         <v>1323</v>
@@ -12559,20 +12565,20 @@
         <v>1328</v>
       </c>
       <c r="B741" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B742" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B743" t="s">
         <v>1331</v>
@@ -12591,20 +12597,20 @@
         <v>1334</v>
       </c>
       <c r="B745" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B746" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B747" t="s">
         <v>1337</v>
@@ -12711,28 +12717,28 @@
         <v>1362</v>
       </c>
       <c r="B760" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B761" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B762" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B763" t="s">
         <v>1366</v>
@@ -12775,12 +12781,12 @@
         <v>1375</v>
       </c>
       <c r="B768" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B769" t="s">
         <v>1377</v>
@@ -12887,28 +12893,28 @@
         <v>1402</v>
       </c>
       <c r="B782" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B783" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B784" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B785" t="s">
         <v>1406</v>
@@ -12927,12 +12933,12 @@
         <v>1409</v>
       </c>
       <c r="B787" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B788" t="s">
         <v>1411</v>
@@ -12951,12 +12957,12 @@
         <v>1414</v>
       </c>
       <c r="B790" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B791" t="s">
         <v>1416</v>
@@ -12975,28 +12981,28 @@
         <v>1419</v>
       </c>
       <c r="B793" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B794" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B795" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B796" t="s">
         <v>1423</v>
@@ -13007,12 +13013,12 @@
         <v>1424</v>
       </c>
       <c r="B797" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B798" t="s">
         <v>1426</v>
@@ -13079,20 +13085,20 @@
         <v>1441</v>
       </c>
       <c r="B806" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B807" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B808" t="s">
         <v>1444</v>
@@ -13127,12 +13133,12 @@
         <v>1451</v>
       </c>
       <c r="B812" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B813" t="s">
         <v>1453</v>
@@ -13151,12 +13157,12 @@
         <v>1456</v>
       </c>
       <c r="B815" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B816" t="s">
         <v>1458</v>
@@ -13175,12 +13181,12 @@
         <v>1461</v>
       </c>
       <c r="B818" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B819" t="s">
         <v>1463</v>
@@ -13207,12 +13213,12 @@
         <v>1468</v>
       </c>
       <c r="B822" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B823" t="s">
         <v>1470</v>
@@ -13223,12 +13229,12 @@
         <v>1471</v>
       </c>
       <c r="B824" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B825" t="s">
         <v>1473</v>
@@ -13271,36 +13277,36 @@
         <v>1482</v>
       </c>
       <c r="B830" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B831" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B832" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B833" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B834" t="s">
         <v>1487</v>
@@ -13367,28 +13373,28 @@
         <v>1502</v>
       </c>
       <c r="B842" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B843" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B844" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B845" t="s">
         <v>1506</v>
@@ -13495,20 +13501,20 @@
         <v>1531</v>
       </c>
       <c r="B858" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B859" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B860" t="s">
         <v>1534</v>
@@ -13519,12 +13525,12 @@
         <v>1535</v>
       </c>
       <c r="B861" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B862" t="s">
         <v>1537</v>
@@ -13535,12 +13541,12 @@
         <v>1538</v>
       </c>
       <c r="B863" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B864" t="s">
         <v>1540</v>
@@ -13647,20 +13653,20 @@
         <v>1565</v>
       </c>
       <c r="B877" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B878" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B879" t="s">
         <v>1568</v>
@@ -13687,12 +13693,12 @@
         <v>1573</v>
       </c>
       <c r="B882" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B883" t="s">
         <v>1575</v>
@@ -13711,12 +13717,12 @@
         <v>1578</v>
       </c>
       <c r="B885" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B886" t="s">
         <v>1580</v>
@@ -13727,12 +13733,12 @@
         <v>1581</v>
       </c>
       <c r="B887" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B888" t="s">
         <v>1583</v>
@@ -13743,12 +13749,12 @@
         <v>1584</v>
       </c>
       <c r="B889" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B890" t="s">
         <v>1586</v>
@@ -13759,12 +13765,12 @@
         <v>1587</v>
       </c>
       <c r="B891" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B892" t="s">
         <v>1589</v>
@@ -13823,12 +13829,12 @@
         <v>1602</v>
       </c>
       <c r="B899" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B900" t="s">
         <v>1604</v>
@@ -13855,12 +13861,12 @@
         <v>1609</v>
       </c>
       <c r="B903" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B904" t="s">
         <v>1611</v>
@@ -13871,20 +13877,20 @@
         <v>1612</v>
       </c>
       <c r="B905" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B906" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B907" t="s">
         <v>1615</v>
@@ -13895,12 +13901,12 @@
         <v>1616</v>
       </c>
       <c r="B908" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B909" t="s">
         <v>1618</v>
@@ -13935,28 +13941,28 @@
         <v>1625</v>
       </c>
       <c r="B913" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B914" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B915" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B916" t="s">
         <v>1629</v>
@@ -13999,20 +14005,20 @@
         <v>1638</v>
       </c>
       <c r="B921" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B922" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B923" t="s">
         <v>1641</v>
@@ -14047,12 +14053,12 @@
         <v>1648</v>
       </c>
       <c r="B927" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B928" t="s">
         <v>1650</v>
@@ -14063,20 +14069,20 @@
         <v>1651</v>
       </c>
       <c r="B929" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B930" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B931" t="s">
         <v>1654</v>
@@ -14159,20 +14165,20 @@
         <v>1673</v>
       </c>
       <c r="B941" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B942" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B943" t="s">
         <v>1676</v>
@@ -14191,12 +14197,12 @@
         <v>1679</v>
       </c>
       <c r="B945" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B946" t="s">
         <v>1681</v>
@@ -14207,28 +14213,28 @@
         <v>1682</v>
       </c>
       <c r="B947" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B948" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B949" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B950" t="s">
         <v>1686</v>
@@ -14271,20 +14277,20 @@
         <v>1695</v>
       </c>
       <c r="B955" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B956" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B957" t="s">
         <v>1698</v>
@@ -14343,20 +14349,20 @@
         <v>1711</v>
       </c>
       <c r="B964" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B965" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B966" t="s">
         <v>1714</v>
@@ -14455,20 +14461,20 @@
         <v>1737</v>
       </c>
       <c r="B978" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B979" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B980" t="s">
         <v>1740</v>
@@ -14503,12 +14509,12 @@
         <v>1747</v>
       </c>
       <c r="B984" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B985" t="s">
         <v>1749</v>
@@ -14519,12 +14525,12 @@
         <v>1750</v>
       </c>
       <c r="B986" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B987" t="s">
         <v>1752</v>
@@ -14535,15 +14541,15 @@
         <v>1753</v>
       </c>
       <c r="B988" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B989" t="s">
         <v>1754</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -14567,12 +14573,12 @@
         <v>1760</v>
       </c>
       <c r="B992" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B993" t="s">
         <v>1762</v>
@@ -14591,12 +14597,12 @@
         <v>1765</v>
       </c>
       <c r="B995" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B996" t="s">
         <v>1767</v>
@@ -14655,20 +14661,20 @@
         <v>1780</v>
       </c>
       <c r="B1003" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B1004" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1005" t="s">
         <v>1783</v>
@@ -14687,12 +14693,12 @@
         <v>1786</v>
       </c>
       <c r="B1007" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B1008" t="s">
         <v>1788</v>
@@ -14703,20 +14709,20 @@
         <v>1789</v>
       </c>
       <c r="B1009" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B1010" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B1011" t="s">
         <v>1792</v>
@@ -14751,20 +14757,20 @@
         <v>1799</v>
       </c>
       <c r="B1015" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1016" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1017" t="s">
         <v>1802</v>
@@ -14783,12 +14789,12 @@
         <v>1805</v>
       </c>
       <c r="B1019" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1020" t="s">
         <v>1807</v>
@@ -14839,12 +14845,12 @@
         <v>1818</v>
       </c>
       <c r="B1026" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B1027" t="s">
         <v>1820</v>
@@ -14879,12 +14885,12 @@
         <v>1827</v>
       </c>
       <c r="B1031" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1032" t="s">
         <v>1829</v>
@@ -14895,12 +14901,12 @@
         <v>1830</v>
       </c>
       <c r="B1033" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1034" t="s">
         <v>1832</v>
@@ -14919,12 +14925,12 @@
         <v>1835</v>
       </c>
       <c r="B1036" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1037" t="s">
         <v>1837</v>
@@ -14951,12 +14957,12 @@
         <v>1842</v>
       </c>
       <c r="B1040" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1041" t="s">
         <v>1844</v>
@@ -15103,12 +15109,12 @@
         <v>1879</v>
       </c>
       <c r="B1059" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1060" t="s">
         <v>1881</v>
@@ -15183,12 +15189,12 @@
         <v>1898</v>
       </c>
       <c r="B1069" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B1070" t="s">
         <v>1900</v>
@@ -15207,12 +15213,12 @@
         <v>1903</v>
       </c>
       <c r="B1072" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B1073" t="s">
         <v>1905</v>
@@ -15223,20 +15229,20 @@
         <v>1906</v>
       </c>
       <c r="B1074" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B1075" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1076" t="s">
         <v>1909</v>
@@ -15255,12 +15261,12 @@
         <v>1912</v>
       </c>
       <c r="B1078" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B1079" t="s">
         <v>1914</v>
@@ -15279,12 +15285,12 @@
         <v>1917</v>
       </c>
       <c r="B1081" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B1082" t="s">
         <v>1919</v>
@@ -15359,12 +15365,12 @@
         <v>1936</v>
       </c>
       <c r="B1091" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B1092" t="s">
         <v>1938</v>
@@ -15439,12 +15445,12 @@
         <v>1955</v>
       </c>
       <c r="B1101" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1102" t="s">
         <v>1957</v>
@@ -15455,20 +15461,20 @@
         <v>1958</v>
       </c>
       <c r="B1103" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B1104" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1105" t="s">
         <v>1961</v>
@@ -15503,12 +15509,12 @@
         <v>1968</v>
       </c>
       <c r="B1109" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B1110" t="s">
         <v>1970</v>
@@ -15519,12 +15525,12 @@
         <v>1971</v>
       </c>
       <c r="B1111" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B1112" t="s">
         <v>1973</v>
@@ -15679,12 +15685,12 @@
         <v>2010</v>
       </c>
       <c r="B1131" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B1132" t="s">
         <v>2012</v>
@@ -15695,12 +15701,12 @@
         <v>2013</v>
       </c>
       <c r="B1133" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B1134" t="s">
         <v>2015</v>
@@ -15711,12 +15717,12 @@
         <v>2016</v>
       </c>
       <c r="B1135" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B1136" t="s">
         <v>2018</v>
@@ -15735,28 +15741,28 @@
         <v>2021</v>
       </c>
       <c r="B1138" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B1139" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B1140" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B1141" t="s">
         <v>2025</v>
@@ -15839,12 +15845,12 @@
         <v>2044</v>
       </c>
       <c r="B1151" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B1152" t="s">
         <v>2046</v>
@@ -15887,20 +15893,20 @@
         <v>2055</v>
       </c>
       <c r="B1157" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B1158" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B1159" t="s">
         <v>2058</v>
@@ -15935,12 +15941,12 @@
         <v>2065</v>
       </c>
       <c r="B1163" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B1164" t="s">
         <v>2067</v>
@@ -15967,28 +15973,28 @@
         <v>2072</v>
       </c>
       <c r="B1167" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B1168" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1169" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="B1170" t="s">
         <v>2076</v>
@@ -16007,12 +16013,12 @@
         <v>2079</v>
       </c>
       <c r="B1172" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="B1173" t="s">
         <v>2081</v>
@@ -16034,8 +16040,16 @@
         <v>2085</v>
       </c>
     </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2087</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/lt/headTags.xlsx
+++ b/lang/lt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2090">
   <si>
     <t>en</t>
   </si>
@@ -3172,3109 +3172,3115 @@
     <t>Hypixel (Minionas)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutacijos)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hipikselis (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (naminiai gyvūnai)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>"Hypixel" (Perdirbimo akmuo)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>"Hypixel" (Maišai)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>"Hypixel" (odos)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismanai)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel (trofėjinė žuvis)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Puošni šalis)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Ledynmetis</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Ledo laipiotojas</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Ledai</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Piktogramos (grafinė vartotojo sąsaja)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Ikonos (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Piktogramos (Kita)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Piktogramos (baltas fonas)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Tapatybė V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indiana Džounsas</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Indigo parkas</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Sužalojimai</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Vidinio sluoksnio blokas</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Šifravimas</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Vabzdžiai</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>"Inside Out</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Inu Jaša</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Užpuolikas Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Nenugalimasis</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>Geležinis žmogus</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Tai .</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jakas ir Daxteris</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japonija</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Dėklas</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Papuošalai</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stendas)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Kelionė</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Šuolio karalius</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Juros periodo parkas</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Teisingumo lyga</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kaiju rojus</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Karatė vaikas</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kidas Ikaras</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kiki pristatymo tarnyba</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Virtuvė</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Lempos gaubtas</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Kraštovaizdis</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Žibintas</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: pilis danguje</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Legendiniai pokemonai</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Mirtina lyga</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Ruinos biblioteka</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>"Life is Strange</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Lilo ir Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Bendrovė Limbus</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Liūtas karalius</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Maža didelė planeta</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Undinėlė</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Maži košmarai</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Mažoji siaubo parduotuvė</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Mažoji ragana akademija</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Logotipas</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>"Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Žiedų valdovas</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Meilė gyvai!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Mylinti būtybė</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Lovestruck asmuo</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Laimingasis Lukas</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Mašinos dalis</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Pašėlęs tėvas</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Pašėlęs Maksas</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Pagaminta bedugnėje</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Beprotybės kova</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Makiažas</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Vyras</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Tyros širdies herojai</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Marija ir raganos gėlė</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Talismanas</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Kaukė</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Kaukė (pilna)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Kaukė (funkcinė)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Kaukė (sveikata)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Kaukė (Minecraft mobas)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>"Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Visatos meistrai</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Matematinis simbolis</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>"Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Maistas</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Mėsa</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Viduramžiai</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Viduramžių smuklė</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Viduramžių karo šalmas</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Mega evoliucija</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity Aktoriai</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metalas</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>"Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Meksika</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Peliukas Mikis</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Karinė įranga</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>"Minecraft" balandžio kvailystės</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>"Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>"Minecraft" požemiai</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>"Minecraft" Žemė</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>"Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>"Minecraft" legendos</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>"Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>"Minecraft" filmas</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>"Minecraft" istorijos režimas</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Stebuklinga: Katės ir berniuko pasakos Noir: "Stebuklingi stebuklai</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (ateities dienoraštis)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>"Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Ponios Kobajaši drakono tarnaitė</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>"Mizuno" išteklių paketas</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Modern Warfare šalmas</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Pinigai</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Pinigų grobstymas</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monitorius</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Beždžionių sala</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monoklis</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Monstrų medžiotojas</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Monstrai Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Muminukas</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Burnos skalavimo skystis</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Ponas Bynas</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Muppetai</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Žudymo dronai</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Grybai</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Grybai (Biomas)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Grybas (galvos apdangalai)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Muzika</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Ūsai</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Mano draugas elnias Nokotanas</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>Mano herojus Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Mano mažasis ponis</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Mano kaimynas Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Mano dainuojantys monstrai</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Narutas</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (įkvėptas)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (vanilinis)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Neutrali būtybė</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Neutralus asmuo</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Naujųjų metų išvakarės</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Naktis miške</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Košmaras prieš Kalėdas</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Vėžliukai nindzės</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Nėra žaidimo, nėra gyvenimo</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>"No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Noelio namų vakarėlis</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Šiaurės mitologija</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (edukacinis leidimas)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Branduolinis kritimas</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Branduolinis sostas</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Numeris</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Riešutai</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Vandenynas</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Pareigūno kepurė</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy ir tarakonai</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Senasis</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>"Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>Viena dalis</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>Vienas smūgis žmogui</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Atvirojo kodo objektai</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Orkų</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Rūdos</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Organai ir kūno dalys</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Kiti galvos apdangalai</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Kitas apšvietimas</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Kita mistinė būtybė</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Išorinio sluoksnio blokas</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Valdovas</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Ramiojo vandenyno pakrantė</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Čiulptukas</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Dažytas veidas</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Blyškus sodas (įkvėpė)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Pans labirintas</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Dokumentai, prašome</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Šalis</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Konditerijos gaminiai ir saldumynai</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Mokėjimo diena</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Žemės riešutai (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pingvinas</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Periodinė elementų lentelė</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Gyvūnų augintinių įranga</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Piteris Penas</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Fantomas</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Fainas ir Ferbas (Phineas &amp; Ferb)</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Kiaulė</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Rožinė pantera</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky ir smegenys</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pinokio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Karibų jūros piratai</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Picų bokštas</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Planeta</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Augalai prieš zombius</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>"Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemonų 1 karta</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon 2 karta</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon 3 karta</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon 4 karta</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon 5 karta</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon 6 karta</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemonų karta 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon 8 karta</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemonų 9 karta</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Pokemon daiktai</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Pokemonų treneris</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Poliarinis lokys</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Policija</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>Pop komanda "Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Aguonų žaidimai</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Portalas</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Paštininkas Patas</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Energijos reindžeriai</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Powerpuff merginos</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Plėšrūnas</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Dabartinis</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Pasididžiavimas</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Primatai</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Princesė Mononokė</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Prof. Laytonas</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Moliūgai</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Moliūgas (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Skyrybos ženklas</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Triušis</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Geležinkelis</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Lietaus pasaulis</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>"Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Kūrėjai</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Beprotiškojo dievo karalystė</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Raudonkepuraitė</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Regioninės formos pokemonai</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Reguliarus šou</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Religija</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Ropliai</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Gelbėjimo reindžeriai</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>"Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ritmo dangus</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Lentelė</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Lietaus rizika</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Eterio varžovas</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Upė</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Robinas Hudas</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robotas</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>"Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Graužikai</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Pasukamas subjektas</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Karališkieji galvos apdangalai</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Didelis nuotykis</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Liūdna būtybė</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Liūdnas žmogus</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Kita)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Blogosios Tanios saga</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Samurajaus šalmas</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Patenkinamai</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Pjūklas</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Šalikas</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>SCP sulaikymo pažeidimas</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>"Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Jūrininkas</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Pabaigos serafas</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Serijiniai eksperimentai Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Sezamo gatvė</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Septynios mirtinos nuodėmės</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>"Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Mordoro šešėliai</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Avys</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Šerlokas Holmsas</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Blizgantys pokemonai</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Pristatymas</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Šrekas</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Simpsonai</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Skeletas</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Skeletas (vanilė)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Skeptiška būtybė</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Skeptiškas asmuo</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Miegančioji gražuolė</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Miegantis padaras</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Miegantis asmuo</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Supjaustyta griežinėliais</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Šlamštas</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Šlamštas (vanilė)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Šliužų rankiotojas</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smite dievai</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Rūkymas</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Smurfai</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Sniego kova</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Sniego skulptūra</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Snieguolė ir septyni nykštukai</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Karo dainos</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Ežiukas Sonikas</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Sielos riteris</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Pietų parkas</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Kelionės į kosmosą</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Kiaušinis su jaunikliais (Spawn Egg)</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Voras</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Voras (vanilė)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Žmogus-voras</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>"Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Kempiniukas Plačiakelnis</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Sportas</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Skleidžia</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Pavasaris į gyvenimą</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Šnipas x šeima</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Kalmarų žaidimas</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Šventojo Patriko diena</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>"Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Žvaigždžių kelias</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Žvaigždė prieš blogio jėgas</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Žvaigždžių karai</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Žvaigždžių karų šalmas</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>"Žvaigždžių karų" kareivio šalmas</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>"Starbucks"</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Pradinis pokemonas</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Kanceliarinės prekės</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steins; Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Akmuo</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Saugykla (kita)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Nepažįstami dalykai</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Gatvės kovotojas</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Vasara</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Akiniai nuo saulės</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Antgamtiškas</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Nustebusi būtybė</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Nustebęs asmuo</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Suši</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Pelkė</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>Mečio menas internete</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Susipainiojęs</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Tatttletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>"Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Teletabiai</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Terraria (nelaimė)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Padėkos diena</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Tąkart, kai persikūnijau į šliužą</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Tintino nuotykiai</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Nuostabus skaitmeninis cirkas</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Nuostabusis Gumbalo pasaulis</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Berniukai</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Katė grįžta</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>Užkalbėjimas (angl. The Conjuring)</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Vario amžius</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Imperatoriaus naujasis bruzdesys</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Anglų ansamblio žvaigždės</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>"The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Finalas</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>Blykstė</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Flinstounai</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>"The Fly</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Sodas pabunda</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Gerasis dinozauras</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Didysis pelių detektyvas</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Niūrūs Billy &amp; Mandy nuotykiai</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Notre Damo garbanius</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Geležinis milžinas</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Paskutinis globėjas</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>"The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Loraxas</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>Niekada nebuvimas</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Pelėdos namas</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Princesė ir varlė</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>"Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Kelias į Eldoradą</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Teksaso grandininio pjūklo žudynės</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Trys kabaljerai</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Woody Woodpecker šou</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Tomas ir draugai</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Tos naktys pas Rachelę</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tokijo vaiduoklis</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tomas ir Džeris</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Rytojaus pionieriai</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Dantų tarpas</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Iš viso Drama sala</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Touhou projektas</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Žaislas</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Žaislų istorija</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Eismo</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Šviesoforas</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Kelio ženklas</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Takai ir pasakos</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformeriai</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Skaidri galvutė</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Šiukšlių dėžė</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Lobiai</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Lobių planeta</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Sudėtingų bandymų atnaujinimas</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Tronas</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Vėžlys</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Sutemų miškas</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Sukta stebuklų šalis</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Kai jie verkia</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale geltonas</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Universalus simbolis</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Į viršų</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Miesto laukinė gyvūnija ir augalija</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Valentinas</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanilė (pašalinta)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Vanilės blokas</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Vanilės maistas</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Vanilės šalmas</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Vanilės elementas</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vanilinė mafija</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Saugyklų medžiotojai</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Daržovės</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Transporto priemonė</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Vikingai</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Kaimo gyventojas</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Kaimo gyventojas (dykuma)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Kaimo gyventojas (džiunglės)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Kaimo gyventojas (lygumos)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Kaimo gyventojas (Savanna)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Kaimo gyventojas (Snieguotoji tundra)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Kaimo gyventojas (Pelkė)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Kaimo gyventojas (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Virtualus youtuberis</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Voltronas</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Vaikščiojantys numirėliai</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Volisas ir Gromitas</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Pasaulių karas</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Kariaujančios katės</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Mes nešame meškiukus</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Mes laimingi nedaugelis</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Orai</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Sveiki atvykę į namus</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Kas tai?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Laukinis atnaujinimas</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Ugnies sparnai</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Meškiukas Pūkuotukas</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Žiema</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Nuostabus stebuklų pasaulis</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Mediena</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Vilna</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Darbo saugos šalmas</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Išardyti Ralfą (Wreck It Ralph)</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>X-Menai</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>"Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Yandere simuliatorius</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Geltonasis povandeninis laivas</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>"Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Jaunimas</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>"Youtube"</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Nulinis sparnas</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Zodiako ženklas</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombis (vanilė)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>Zootopija</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Hipikselis (Mutacijos) Žyma</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hipikselis (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (naminiai gyvūnai)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>"Hypixel" (Perdirbimo akmuo)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>"Hypixel" (Maišai)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>"Hypixel" (odos)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismanai)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel (trofėjinė žuvis)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Puošni šalis)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Ledynmetis</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Ledo laipiotojas</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Ledai</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Piktogramos (grafinė vartotojo sąsaja)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Ikonos (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Piktogramos (Kita)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Piktogramos (baltas fonas)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Tapatybė V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indiana Džounsas</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Indigo parkas</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Sužalojimai</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Vidinio sluoksnio blokas</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Šifravimas</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Vabzdžiai</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>"Inside Out</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Inu Jaša</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Užpuolikas Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Nenugalimasis</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>Geležinis žmogus</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Tai .</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jakas ir Daxteris</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japonija</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Dėklas</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Papuošalai</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stendas)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Kelionė</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Šuolio karalius</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Juros periodo parkas</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Teisingumo lyga</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kaiju rojus</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Karatė vaikas</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kidas Ikaras</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kiki pristatymo tarnyba</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Virtuvė</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Lempos gaubtas</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Kraštovaizdis</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Žibintas</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: pilis danguje</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Legendiniai pokemonai</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Mirtina lyga</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Ruinos biblioteka</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>"Life is Strange</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Lilo ir Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Bendrovė Limbus</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Liūtas karalius</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Maža didelė planeta</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Undinėlė</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Maži košmarai</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Mažoji siaubo parduotuvė</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Mažoji ragana akademija</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Logotipas</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>"Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Žiedų valdovas</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Meilė gyvai!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Mylinti būtybė</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Lovestruck asmuo</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Laimingasis Lukas</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Mašinos dalis</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Pašėlęs tėvas</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Pašėlęs Maksas</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Pagaminta bedugnėje</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Beprotybės kova</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Makiažas</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Vyras</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Tyros širdies herojai</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Marija ir raganos gėlė</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Talismanas</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Kaukė</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Kaukė (pilna)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Kaukė (funkcinė)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Kaukė (sveikata)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Kaukė (Minecraft mobas)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>"Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Visatos meistrai</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Matematinis simbolis</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>"Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Maistas</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Mėsa</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Viduramžiai</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Viduramžių smuklė</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Viduramžių karo šalmas</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Mega evoliucija</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity Aktoriai</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metalas</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>"Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Meksika</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Peliukas Mikis</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Karinė įranga</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>"Minecraft" balandžio kvailystės</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>"Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>"Minecraft" požemiai</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>"Minecraft" Žemė</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>"Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>"Minecraft" legendos</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>"Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>"Minecraft" filmas</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>"Minecraft" istorijos režimas</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Stebuklinga: Katės ir berniuko pasakos Noir: "Stebuklingi stebuklai</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (ateities dienoraštis)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>"Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Ponios Kobajaši drakono tarnaitė</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>"Mizuno" išteklių paketas</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Modern Warfare šalmas</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Pinigai</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Pinigų grobstymas</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monitorius</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Beždžionių sala</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monoklis</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Monstrų medžiotojas</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Monstrai Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Muminukas</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Burnos skalavimo skystis</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Ponas Bynas</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Muppetai</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Žudymo dronai</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Grybai</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Grybai (Biomas)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Grybas (galvos apdangalai)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Muzika</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Ūsai</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Mano draugas elnias Nokotanas</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>Mano herojus Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Mano mažasis ponis</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Mano kaimynas Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Mano dainuojantys monstrai</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Narutas</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (įkvėptas)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (vanilinis)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Neutrali būtybė</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Neutralus asmuo</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Naujųjų metų išvakarės</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Naktis miške</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Košmaras prieš Kalėdas</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Vėžliukai nindzės</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Nėra žaidimo, nėra gyvenimo</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>"No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Noelio namų vakarėlis</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Šiaurės mitologija</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (edukacinis leidimas)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Branduolinis kritimas</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Branduolinis sostas</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Numeris</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Riešutai</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Vandenynas</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Pareigūno kepurė</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy ir tarakonai</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Senasis</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>"Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>Viena dalis</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>Vienas smūgis žmogui</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Atvirojo kodo objektai</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Orkų</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Rūdos</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Organai ir kūno dalys</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Kiti galvos apdangalai</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Kitas apšvietimas</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Kita mistinė būtybė</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Išorinio sluoksnio blokas</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Valdovas</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Ramiojo vandenyno pakrantė</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Čiulptukas</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Dažytas veidas</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Blyškus sodas (įkvėpė)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Pans labirintas</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Dokumentai, prašome</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Šalis</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Konditerijos gaminiai ir saldumynai</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Mokėjimo diena</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Žemės riešutai (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pingvinas</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Periodinė elementų lentelė</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Gyvūnų augintinių įranga</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Piteris Penas</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Fantomas</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Fainas ir Ferbas (Phineas &amp; Ferb)</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Kiaulė</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Rožinė pantera</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky ir smegenys</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pinokio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Karibų jūros piratai</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Picų bokštas</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Planeta</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Augalai prieš zombius</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>"Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemonų 1 karta</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon 2 karta</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon 3 karta</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon 4 karta</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon 5 karta</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon 6 karta</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemonų karta 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon 8 karta</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemonų 9 karta</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Pokemon daiktai</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Pokemonų treneris</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Poliarinis lokys</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Policija</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>Pop komanda "Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Aguonų žaidimai</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Portalas</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Paštininkas Patas</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Energijos reindžeriai</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Powerpuff merginos</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Plėšrūnas</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Dabartinis</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Pasididžiavimas</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Primatai</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Princesė Mononokė</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Prof. Laytonas</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Moliūgai</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Moliūgas (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Skyrybos ženklas</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Triušis</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Geležinkelis</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Lietaus pasaulis</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>"Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Kūrėjai</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Beprotiškojo dievo karalystė</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Raudonkepuraitė</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Regioninės formos pokemonai</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Reguliarus šou</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Religija</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Ropliai</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Gelbėjimo reindžeriai</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>"Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ritmo dangus</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Lentelė</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Lietaus rizika</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Eterio varžovas</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Upė</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Robinas Hudas</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robotas</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>"Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Graužikai</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Pasukamas subjektas</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Karališkieji galvos apdangalai</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Didelis nuotykis</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Liūdna būtybė</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Liūdnas žmogus</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Kita)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Blogosios Tanios saga</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Samurajaus šalmas</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Patenkinamai</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Pjūklas</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Šalikas</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>SCP sulaikymo pažeidimas</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>"Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Jūrininkas</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Pabaigos serafas</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Serijiniai eksperimentai Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Sezamo gatvė</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Septynios mirtinos nuodėmės</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>"Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Mordoro šešėliai</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Avys</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Šerlokas Holmsas</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Blizgantys pokemonai</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Pristatymas</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Šrekas</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Simpsonai</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Skeletas</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Skeletas (vanilė)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Skeptiška būtybė</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Skeptiškas asmuo</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Miegančioji gražuolė</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Miegantis padaras</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Miegantis asmuo</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Supjaustyta griežinėliais</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Šlamštas</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Šlamštas (vanilė)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Šliužų rankiotojas</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smite dievai</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Rūkymas</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Smurfai</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Sniego kova</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Sniego skulptūra</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Snieguolė ir septyni nykštukai</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Karo dainos</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Ežiukas Sonikas</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Sielos riteris</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Pietų parkas</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Kelionės į kosmosą</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Kiaušinis su jaunikliais (Spawn Egg)</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Voras</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Voras (vanilė)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Žmogus-voras</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>"Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Kempiniukas Plačiakelnis</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Sportas</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Skleidžia</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Pavasaris į gyvenimą</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Šnipas x šeima</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Kalmarų žaidimas</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Šventojo Patriko diena</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>"Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Žvaigždžių kelias</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Žvaigždė prieš blogio jėgas</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Žvaigždžių karai</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Žvaigždžių karų šalmas</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>"Žvaigždžių karų" kareivio šalmas</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>"Starbucks"</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Pradinis pokemonas</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Kanceliarinės prekės</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steins; Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Akmuo</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Saugykla (kita)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Nepažįstami dalykai</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Gatvės kovotojas</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Vasara</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Akiniai nuo saulės</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Antgamtiškas</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Nustebusi būtybė</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Nustebęs asmuo</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Suši</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Pelkė</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>Mečio menas internete</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Susipainiojęs</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Tatttletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>"Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Teletabiai</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Terraria (nelaimė)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Padėkos diena</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Tąkart, kai persikūnijau į šliužą</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Tintino nuotykiai</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Nuostabus skaitmeninis cirkas</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Nuostabusis Gumbalo pasaulis</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Berniukai</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Katė grįžta</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>Užkalbėjimas (angl. The Conjuring)</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Vario amžius</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Imperatoriaus naujasis bruzdesys</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Anglų ansamblio žvaigždės</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>"The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Finalas</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>Blykstė</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Flinstounai</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>"The Fly</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Sodas pabunda</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Gerasis dinozauras</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Didysis pelių detektyvas</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Niūrūs Billy &amp; Mandy nuotykiai</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Notre Damo garbanius</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Geležinis milžinas</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Paskutinis globėjas</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>"The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Loraxas</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>Niekada nebuvimas</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Pelėdos namas</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Princesė ir varlė</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>"Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Kelias į Eldoradą</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Teksaso grandininio pjūklo žudynės</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Trys kabaljerai</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Woody Woodpecker šou</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Tomas ir draugai</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Tos naktys pas Rachelę</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tokijo vaiduoklis</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tomas ir Džeris</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Rytojaus pionieriai</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Dantų tarpas</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Iš viso Drama sala</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Touhou projektas</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Žaislas</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Žaislų istorija</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Eismo</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Šviesoforas</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Kelio ženklas</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Takai ir pasakos</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformeriai</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Skaidri galvutė</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Šiukšlių dėžė</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Lobiai</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Lobių planeta</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Sudėtingų bandymų atnaujinimas</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Tronas</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Vėžlys</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Sutemų miškas</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Sukta stebuklų šalis</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Kai jie verkia</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale geltonas</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Universalus simbolis</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Į viršų</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Miesto laukinė gyvūnija ir augalija</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Valentinas</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanilė (pašalinta)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Vanilės blokas</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Vanilės maistas</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Vanilės šalmas</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Vanilės elementas</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vanilinė mafija</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Saugyklų medžiotojai</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Daržovės</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Transporto priemonė</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Vikingai</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Kaimo gyventojas</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Kaimo gyventojas (dykuma)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Kaimo gyventojas (džiunglės)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Kaimo gyventojas (lygumos)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Kaimo gyventojas (Savanna)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Kaimo gyventojas (Snieguotoji tundra)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Kaimo gyventojas (Pelkė)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Kaimo gyventojas (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Virtualus youtuberis</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Voltronas</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Vaikščiojantys numirėliai</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Volisas ir Gromitas</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Pasaulių karas</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Kariaujančios katės</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Mes nešame meškiukus</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Mes laimingi nedaugelis</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Orai</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Sveiki atvykę į namus</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Kas tai?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Laukinis atnaujinimas</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Ugnies sparnai</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Meškiukas Pūkuotukas</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Žiema</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Nuostabus stebuklų pasaulis</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Mediena</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Vilna</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Darbo saugos šalmas</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Išardyti Ralfą (Wreck It Ralph)</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>X-Menai</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>"Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Yandere simuliatorius</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Geltonasis povandeninis laivas</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>"Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Jaunimas</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>"Youtube"</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Nulinis sparnas</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Zodiako ženklas</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombis (vanilė)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
-  </si>
-  <si>
-    <t>Zootopija</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6627,7 +6633,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -16048,8 +16054,16 @@
         <v>2087</v>
       </c>
     </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2089</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
